--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.838</v>
+        <v>28.826</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>34.87708031632096</v>
+        <v>34.90209590444678</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34.87723628805893</v>
+        <v>34.90210811049317</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.87706726993331</v>
+        <v>34.90210927387719</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34.87381353109821</v>
+        <v>34.90210154912425</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34.87382949191783</v>
+        <v>34.90210540798216</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34.8738267601569</v>
+        <v>34.90210444762994</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34.87692797618592</v>
+        <v>34.9021078152693</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.87686004997654</v>
+        <v>34.90210467248978</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.87680497730994</v>
+        <v>34.90210598745529</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.86411726320794</v>
+        <v>34.90210974254797</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.86415847087757</v>
+        <v>34.90211158320721</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.86412009077041</v>
+        <v>34.90211183725676</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34.86325093882756</v>
+        <v>34.90210667978929</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.86338609990072</v>
+        <v>34.90211228924111</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.86326969938695</v>
+        <v>34.90211280036706</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>34.85930258110579</v>
+        <v>34.90209722914854</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.85960349043738</v>
+        <v>34.90211187402852</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.85950578476116</v>
+        <v>34.90211321104696</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>34.85402891706007</v>
+        <v>34.9020991081646</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34.85424908931198</v>
+        <v>34.90210765666689</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.85424942671056</v>
+        <v>34.90210826345781</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34.85945015349788</v>
+        <v>34.90210877033958</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.8593091731256</v>
+        <v>34.90211107565472</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.85956742043665</v>
+        <v>34.90211092129096</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.83719396343087</v>
+        <v>34.90211421002321</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.83718366655139</v>
+        <v>34.90211682529619</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>34.83718535395749</v>
+        <v>34.90211687435106</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.83573935830333</v>
+        <v>34.90211013927977</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.83569742351258</v>
+        <v>34.902116488385</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>34.83542985653546</v>
+        <v>34.90211713623013</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.85443480794814</v>
+        <v>34.90209637034243</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.85464388444345</v>
+        <v>34.90211449471747</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.85491784029202</v>
+        <v>34.90211447940926</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.84968808656432</v>
+        <v>34.90209948233763</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34.84951601768451</v>
+        <v>34.9021103566889</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>34.84947632013297</v>
+        <v>34.90211046642982</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.85471036473803</v>
+        <v>34.90211103777884</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.85466672924948</v>
+        <v>34.90211379547539</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>34.85391740416817</v>
+        <v>34.90211456870339</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.82844811935258</v>
+        <v>34.9021195357309</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.82838331974346</v>
+        <v>34.90212276732814</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34.82837193704896</v>
+        <v>34.90212283337485</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.82683514417679</v>
+        <v>34.90211463293225</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.82665242227093</v>
+        <v>34.90212317787506</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>34.82629673755022</v>
+        <v>34.90212351019729</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>34.87621247953582</v>
+        <v>34.90209294111185</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.87048063189661</v>
+        <v>34.90211088300937</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.87035558421304</v>
+        <v>34.90211293370891</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.86626340503116</v>
+        <v>34.90210286203815</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.86601918103737</v>
+        <v>34.90210871143422</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.86602397007986</v>
+        <v>34.9021086885703</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.87031235735745</v>
+        <v>34.9021092338414</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.86976907604198</v>
+        <v>34.9021061382709</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.86980797000506</v>
+        <v>34.90210797703614</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.85342561483089</v>
+        <v>34.90211271853836</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.85363871302297</v>
+        <v>34.90211536562964</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>34.85360030390461</v>
+        <v>34.90211608399851</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>34.85245526130544</v>
+        <v>34.90210758853122</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.85261286688392</v>
+        <v>34.90211594091492</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.85253188890931</v>
+        <v>34.9021170797273</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>34.85072874784773</v>
+        <v>34.90209239416163</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.84953118968124</v>
+        <v>34.90211215800536</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.84983480615698</v>
+        <v>34.90211510425267</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.84477353744044</v>
+        <v>34.90209710325705</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.84461410993691</v>
+        <v>34.90210898429165</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.8444584578793</v>
+        <v>34.90210984515505</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.85152573851655</v>
+        <v>34.90211217346642</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.85006781230776</v>
+        <v>34.90211063473599</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.85007709110675</v>
+        <v>34.90211090722179</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.82582582115479</v>
+        <v>34.90211442116025</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>34.82743047848965</v>
+        <v>34.902117751462</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.82729610778343</v>
+        <v>34.90211798107928</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.82590359778325</v>
+        <v>34.90210916505615</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.82584035801184</v>
+        <v>34.90211659884406</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>34.82550553265816</v>
+        <v>34.90211823912966</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.8441616348759</v>
+        <v>34.90209245130195</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.84355643297621</v>
+        <v>34.90211500257395</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.84337894188386</v>
+        <v>34.90211602869889</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.83801611673264</v>
+        <v>34.90209853935487</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.83729089161533</v>
+        <v>34.90211144794035</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.83740360817267</v>
+        <v>34.90211251377202</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>34.84489489742707</v>
+        <v>34.90211594374966</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.84350213185244</v>
+        <v>34.90211342174179</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>34.84331533841181</v>
+        <v>34.90211753372557</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>34.81587867951419</v>
+        <v>34.90212050634442</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>34.81717857826272</v>
+        <v>34.90212384259873</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.81702043877247</v>
+        <v>34.90212454231909</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>34.81580208136312</v>
+        <v>34.9021141946989</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.81545882736459</v>
+        <v>34.90212262721381</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.81497145245478</v>
+        <v>34.90212477549311</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.87288776891499</v>
+        <v>34.90209113627787</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.87644257565604</v>
+        <v>34.90210929868434</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.87718788335605</v>
+        <v>34.90211125959974</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>34.87511227955806</v>
+        <v>34.90210053041595</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.8747736138891</v>
+        <v>34.90210648735768</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.87457785454275</v>
+        <v>34.90210635184182</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>34.87653394945248</v>
+        <v>34.90210718461218</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.87619512898092</v>
+        <v>34.90210417753071</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>34.87436782008599</v>
+        <v>34.90210584089217</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.86130310512591</v>
+        <v>34.90211053231096</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.86137995381018</v>
+        <v>34.90211323007423</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.8613558639338</v>
+        <v>34.90211390479318</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>34.86037458020029</v>
+        <v>34.90210549385994</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.86043796832943</v>
+        <v>34.90211394732398</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.85976058000899</v>
+        <v>34.90211497427457</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>34.85459094798823</v>
+        <v>34.90209188747269</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.85489699004657</v>
+        <v>34.90211176719506</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.85585587867207</v>
+        <v>34.9021147765101</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>34.8515895820368</v>
+        <v>34.90209662074964</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.85105863146405</v>
+        <v>34.90210852688461</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.85082047252021</v>
+        <v>34.90210935399195</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>34.85496925367634</v>
+        <v>34.90211191643204</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>34.85455218865117</v>
+        <v>34.90211028861886</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.84930747369219</v>
+        <v>34.90211055106117</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.82488302896615</v>
+        <v>34.90211387838323</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.82504212385457</v>
+        <v>34.90211721092946</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>34.82512828690683</v>
+        <v>34.90211744427119</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.82279035030258</v>
+        <v>34.90210854272537</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.82310603945466</v>
+        <v>34.90211601097078</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.82331280773471</v>
+        <v>34.90211768703612</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.8402458531364</v>
+        <v>34.90209256770893</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.84136912503985</v>
+        <v>34.90211533653157</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.84143566782016</v>
+        <v>34.90211640102046</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>34.83440623290073</v>
+        <v>34.902099358889</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.8356906142435</v>
+        <v>34.9021122579674</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.83559516667712</v>
+        <v>34.90211340886919</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>34.84166550819192</v>
+        <v>34.90211668278174</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.84218572262443</v>
+        <v>34.90211412184014</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34.84209977301735</v>
+        <v>34.90211833189722</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.81474699740766</v>
+        <v>34.90212144538578</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>34.81500945732166</v>
+        <v>34.90212479572342</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>34.81502969016587</v>
+        <v>34.90212550032543</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.81227339198662</v>
+        <v>34.90211498516359</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>34.81293286348908</v>
+        <v>34.90212352550608</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>34.81295493887544</v>
+        <v>34.90212572769168</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>34.87662389598933</v>
+        <v>34.90209449557049</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.87685661085145</v>
+        <v>34.90210658975487</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>34.87670698455647</v>
+        <v>34.90210761387711</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>34.87351190479027</v>
+        <v>34.90209931742925</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>34.87358154131177</v>
+        <v>34.90210287170818</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>34.87365224802597</v>
+        <v>34.90210179267513</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>34.87667642323519</v>
+        <v>34.90210532471548</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.87664580809516</v>
+        <v>34.90210164165955</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.8766343581383</v>
+        <v>34.90210298460612</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.86384939228912</v>
+        <v>34.90210625948274</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.86391937427909</v>
+        <v>34.90210801088513</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.86389460177067</v>
+        <v>34.9021082636871</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.86287087194517</v>
+        <v>34.9021033403013</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>34.86310421770644</v>
+        <v>34.902108793087</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.86301691972638</v>
+        <v>34.90210923796254</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>34.85900418636852</v>
+        <v>34.90209476744258</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>34.85943231390419</v>
+        <v>34.90210894173958</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.85921058231968</v>
+        <v>34.90211047487359</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>34.85382090032031</v>
+        <v>34.90209507064775</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>34.85410020186765</v>
+        <v>34.90210304933745</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.85396094640675</v>
+        <v>34.90210378187291</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>34.85934196804625</v>
+        <v>34.90210471795084</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.85911260995911</v>
+        <v>34.90210617709854</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.85987775880993</v>
+        <v>34.9021062323532</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.83816386588079</v>
+        <v>34.90210909093403</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.83815143565683</v>
+        <v>34.90211155987833</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.83811112308429</v>
+        <v>34.90211168431346</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>34.83671885275123</v>
+        <v>34.90210548435832</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.83666625923913</v>
+        <v>34.90211134100441</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.83615145650004</v>
+        <v>34.90211214360811</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.85474518592837</v>
+        <v>34.90209431198349</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.85479649762891</v>
+        <v>34.90211197067891</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.8546891106384</v>
+        <v>34.90211216815926</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.8499072676977</v>
+        <v>34.9020959012086</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.84953987780577</v>
+        <v>34.90210622288195</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.84937926233194</v>
+        <v>34.9021064993346</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>34.85438527670276</v>
+        <v>34.90210760858754</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.85431927666119</v>
+        <v>34.90210940216691</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>34.85468466365197</v>
+        <v>34.90211043235135</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>34.83104353773397</v>
+        <v>34.90211520777423</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>34.83093308497201</v>
+        <v>34.90211827110785</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>34.83089629071754</v>
+        <v>34.90211842570532</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.82957429173581</v>
+        <v>34.90211076217307</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>34.82920705581214</v>
+        <v>34.90211880858534</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>34.82868702616494</v>
+        <v>34.90211933872565</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>34.87969897235232</v>
+        <v>34.90209668091799</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.87804893024828</v>
+        <v>34.90210855199493</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.87797106233909</v>
+        <v>34.90210943526161</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>34.87508215978918</v>
+        <v>34.90210057193769</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.87494788039854</v>
+        <v>34.90210450268977</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.87489693429818</v>
+        <v>34.90210338836876</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.8780103167149</v>
+        <v>34.90210664670551</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.87777168974448</v>
+        <v>34.90210389567459</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.87773584239088</v>
+        <v>34.90210509836939</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.86551008257802</v>
+        <v>34.90210756793816</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34.86566503487023</v>
+        <v>34.90210937858058</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.86564208074958</v>
+        <v>34.90210955878583</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>34.86482686558215</v>
+        <v>34.90210448961371</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>34.86489661215341</v>
+        <v>34.90211004229905</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.86485165545981</v>
+        <v>34.90211036701863</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.86137902064486</v>
+        <v>34.90209801479622</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.86098943138048</v>
+        <v>34.90211193965028</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.86104085532268</v>
+        <v>34.90211317571859</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.85655439652744</v>
+        <v>34.90210017023841</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.85648007313225</v>
+        <v>34.90210814486355</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.85633810983984</v>
+        <v>34.90210869193863</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.86153178668587</v>
+        <v>34.90210903374601</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.86093734821588</v>
+        <v>34.9021112170589</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.86088847511796</v>
+        <v>34.90211105121006</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.84014387488895</v>
+        <v>34.90211458782167</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.84085914713454</v>
+        <v>34.90211707360587</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>34.84077243524872</v>
+        <v>34.90211714129458</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>34.83952013237312</v>
+        <v>34.90211081835899</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.83954536217193</v>
+        <v>34.90211682235608</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>34.85575405360444</v>
+        <v>34.90209689687578</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>34.85530957104269</v>
+        <v>34.90211408073085</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.85544588680338</v>
+        <v>34.90211429217675</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.8502796899852</v>
+        <v>34.90209977401138</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.85017677639679</v>
+        <v>34.90211002130278</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.850054257092</v>
+        <v>34.90211031594625</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.85573957330147</v>
+        <v>34.90211071927024</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.85557811856757</v>
+        <v>34.90211324238429</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.85523859762343</v>
+        <v>34.90211402321295</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.83251105222134</v>
+        <v>34.90211895560111</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>34.83259830480137</v>
+        <v>34.90212199429435</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.83291500244215</v>
+        <v>34.90212210291123</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.8316866723241</v>
+        <v>34.90211437875666</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.83152450427315</v>
+        <v>34.90212241186767</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.83131087899906</v>
+        <v>34.90212287626946</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>34.85359906113218</v>
+        <v>34.90209291436987</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>34.85306615315614</v>
+        <v>34.90210553969064</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.858109141873</v>
+        <v>34.90210724368077</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>34.85797250541942</v>
+        <v>34.90209751943255</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>34.85754569961126</v>
+        <v>34.9020999666599</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.85749529934092</v>
+        <v>34.90209991187407</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.86085074109064</v>
+        <v>34.90210236368163</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>34.86037186992765</v>
+        <v>34.90209715346381</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>34.86040020634261</v>
+        <v>34.90209902495558</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.83449721607192</v>
+        <v>34.90210247521953</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>34.83470089548842</v>
+        <v>34.90210403674872</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>34.83467287149502</v>
+        <v>34.90210465909779</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.83192454301757</v>
+        <v>34.90209902290297</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.83246775064672</v>
+        <v>34.9021045232236</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>34.83247387332723</v>
+        <v>34.90210561663637</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.82114451946432</v>
+        <v>34.9020938511104</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.82227137774435</v>
+        <v>34.90211022993801</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>34.82204531927626</v>
+        <v>34.90211221854575</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>34.81910824119759</v>
+        <v>34.90209763603596</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.81837313363009</v>
+        <v>34.90210737268026</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.81835703604185</v>
+        <v>34.90210744551415</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.82541761512852</v>
+        <v>34.90210891922165</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.82479404439611</v>
+        <v>34.90210751549214</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.82483545329625</v>
+        <v>34.90210773304694</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>34.77331583828678</v>
+        <v>34.90211057086098</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>34.77580950866118</v>
+        <v>34.90211328536608</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>34.77581265194884</v>
+        <v>34.90211349661396</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.77279325668977</v>
+        <v>34.90210643952357</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.77265548118179</v>
+        <v>34.90211264815697</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>34.77286364631949</v>
+        <v>34.90211382186467</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.80917781584184</v>
+        <v>34.90209411563658</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>34.80323015052383</v>
+        <v>34.90211260949286</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.80338647419131</v>
+        <v>34.90211372964019</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.79510970233677</v>
+        <v>34.90209861612443</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>34.79468573347537</v>
+        <v>34.9021092525409</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.79425096791474</v>
+        <v>34.90211030134782</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>34.80773990733002</v>
+        <v>34.90211237393727</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>34.80472564727246</v>
+        <v>34.90211025748049</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>34.80452162657951</v>
+        <v>34.90211370675546</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.75678858347487</v>
+        <v>34.90211584641012</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.76002325174696</v>
+        <v>34.90211862120607</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>34.7599214027426</v>
+        <v>34.90211924204544</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.75638096817545</v>
+        <v>34.90211098881338</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>34.75669252076573</v>
+        <v>34.90211790748184</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>34.75646330601377</v>
+        <v>34.9021197933213</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>34.85476775421704</v>
+        <v>34.90209324248418</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.84860655854305</v>
+        <v>34.90210625814033</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>34.84810177546993</v>
+        <v>34.90210826440978</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.84188395205127</v>
+        <v>34.90210032854121</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>34.84139186790397</v>
+        <v>34.90210273708789</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.84171144952114</v>
+        <v>34.90210287738111</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.84867603259002</v>
+        <v>34.9021052777898</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34.84792624125277</v>
+        <v>34.90209971700514</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.84795640608862</v>
+        <v>34.90210176184984</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.82077679561097</v>
+        <v>34.90210657584972</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>34.82097685688969</v>
+        <v>34.90210821445643</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.82092479353607</v>
+        <v>34.90210892631134</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.81893746698029</v>
+        <v>34.9021030239144</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>34.81932650102207</v>
+        <v>34.90210865628494</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.81915237148513</v>
+        <v>34.9021099385707</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.81750849722395</v>
+        <v>34.90209307043659</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>34.8161263309734</v>
+        <v>34.9021096602616</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.81533499710969</v>
+        <v>34.90211197778988</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.80894861132225</v>
+        <v>34.90209643624488</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.80810617863322</v>
+        <v>34.902106262025</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.8079794636209</v>
+        <v>34.90210654396544</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>34.8194638954627</v>
+        <v>34.90210838855528</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>34.81706134692298</v>
+        <v>34.90210660392771</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>34.81671604181657</v>
+        <v>34.902106960288</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.77971559869682</v>
+        <v>34.90210957485998</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.77991702750464</v>
+        <v>34.90211228632094</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>34.77986061572902</v>
+        <v>34.90211254479784</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>34.7753096187128</v>
+        <v>34.90210533497424</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.77603281689802</v>
+        <v>34.9021115317755</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>34.77596474183751</v>
+        <v>34.90211290216605</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.80927717459468</v>
+        <v>34.9020929488393</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>34.81039491536456</v>
+        <v>34.90211180586007</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.81040630813981</v>
+        <v>34.90211282864217</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.80551667762104</v>
+        <v>34.90209676698623</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.80403556203304</v>
+        <v>34.90210745292826</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>34.80416684374772</v>
+        <v>34.90210845173449</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>34.81236332778523</v>
+        <v>34.9021112305094</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.81173569055866</v>
+        <v>34.90210870167004</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.81177642829247</v>
+        <v>34.90211233557278</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.76751166194556</v>
+        <v>34.90211421247513</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>34.76735594642187</v>
+        <v>34.90211703212503</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>34.76729425646427</v>
+        <v>34.90211764572599</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>34.76295969762653</v>
+        <v>34.90210933202808</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>34.76281392679798</v>
+        <v>34.90211634486403</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.76271068583348</v>
+        <v>34.90211820361781</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>34.87314296677338</v>
+        <v>34.9020923224184</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>34.8735237323229</v>
+        <v>34.90210961255623</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.8705256935143</v>
+        <v>34.90211113953175</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.8666733078273</v>
+        <v>34.90209962320085</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>34.86647167568769</v>
+        <v>34.90210475962014</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.86643899352339</v>
+        <v>34.90210366844979</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>34.87057750232589</v>
+        <v>34.90210733638329</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>34.87033236580118</v>
+        <v>34.90210286830303</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.87015963929672</v>
+        <v>34.90210449729232</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.85401879033856</v>
+        <v>34.90210915149112</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.85409886779323</v>
+        <v>34.90211166139964</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.85423466168162</v>
+        <v>34.90211209689145</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>34.85311895652861</v>
+        <v>34.90210438388876</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.85326013944564</v>
+        <v>34.90211240894862</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.85318769512298</v>
+        <v>34.90211310320154</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>34.84937158817209</v>
+        <v>34.90209567520289</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.84913537483254</v>
+        <v>34.90211668528143</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>34.84889731254103</v>
+        <v>34.90211872136692</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>34.84325607449846</v>
+        <v>34.90210162741541</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>34.84362022451411</v>
+        <v>34.90211411388528</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>34.84292606882611</v>
+        <v>34.90211444838064</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>34.84980199150316</v>
+        <v>34.90211515036626</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.84966653821328</v>
+        <v>34.90211669988673</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34.84873661285396</v>
+        <v>34.90211649920558</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>34.8225512657642</v>
+        <v>34.90212156174277</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>34.82135351414411</v>
+        <v>34.9021252350869</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.82216044533527</v>
+        <v>34.90212533848059</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>34.82057993914233</v>
+        <v>34.90211562535373</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>34.82061229634738</v>
+        <v>34.90212440027563</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.8202470873308</v>
+        <v>34.90212543237285</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>34.84187599661964</v>
+        <v>34.90209429477618</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>34.84120218006492</v>
+        <v>34.90211908792576</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.84113476689728</v>
+        <v>34.90211965615677</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.83471653797641</v>
+        <v>34.90210133796114</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>34.83471603603969</v>
+        <v>34.90211601159641</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.83432357981793</v>
+        <v>34.9021166591105</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.84196356263119</v>
+        <v>34.9021176827479</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>34.84177248543484</v>
+        <v>34.90211894780649</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.84097675267024</v>
+        <v>34.9021213963387</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>34.8112411105689</v>
+        <v>34.90212777975763</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>34.81139553444415</v>
+        <v>34.90213190039466</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>34.81201458193178</v>
+        <v>34.90213228386049</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>34.81042805174338</v>
+        <v>34.9021208647099</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>34.81025289171084</v>
+        <v>34.90213162304916</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.80985991127829</v>
+        <v>34.90213290346045</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>34.86167119912484</v>
+        <v>34.90209594193291</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>34.86119512899167</v>
+        <v>34.9021116655186</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>34.86564601979789</v>
+        <v>34.90211365915407</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>34.86563378296918</v>
+        <v>34.90210504822764</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>34.86523052764415</v>
+        <v>34.90210936742008</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.86521622743495</v>
+        <v>34.90210938052169</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>34.86790319915195</v>
+        <v>34.90211065456486</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>34.86746540550231</v>
+        <v>34.9021066116709</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.86751325342264</v>
+        <v>34.9021085933275</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.84608309464119</v>
+        <v>34.90211396548568</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>34.84626275452424</v>
+        <v>34.90211619334508</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>34.84622711118868</v>
+        <v>34.9021168523581</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.84391708714794</v>
+        <v>34.90210934336743</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.84439971359495</v>
+        <v>34.90211661401538</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.84437503439057</v>
+        <v>34.902117799581</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>34.83484415242989</v>
+        <v>34.90209552710344</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.83582740911947</v>
+        <v>34.90211414040535</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.83559558417731</v>
+        <v>34.90211654712074</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.83328558259115</v>
+        <v>34.90210115679425</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>34.8326118545392</v>
+        <v>34.90211242659512</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.83263043414328</v>
+        <v>34.90211270466027</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.8383843640638</v>
+        <v>34.90211404661955</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.83782316823504</v>
+        <v>34.90211301824343</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>34.83788477728145</v>
+        <v>34.90211315528604</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>34.79506330626193</v>
+        <v>34.90211751066182</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.79720298467549</v>
+        <v>34.90212063566852</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.79721507046732</v>
+        <v>34.90212086347803</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.79472457847407</v>
+        <v>34.90211244705081</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.79456816382947</v>
+        <v>34.90211969542011</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.79477015660994</v>
+        <v>34.90212105751059</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.82496454085172</v>
+        <v>34.90209464592368</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.81982698471493</v>
+        <v>34.90211579903863</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.81995538220491</v>
+        <v>34.90211688200623</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.81322747095529</v>
+        <v>34.90210092171209</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>34.81286663841544</v>
+        <v>34.90211318557913</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>34.81249278686605</v>
+        <v>34.90211426054246</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.82378072225968</v>
+        <v>34.90211653069263</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.8211634594791</v>
+        <v>34.90211480914098</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.82098625565267</v>
+        <v>34.90211837848458</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.78131721657592</v>
+        <v>34.90212122243251</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.78414417167533</v>
+        <v>34.90212446771571</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>34.78405392932903</v>
+        <v>34.90212505981712</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.78108719413424</v>
+        <v>34.90211533147555</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.78137834979914</v>
+        <v>34.90212349963483</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.78117145925454</v>
+        <v>34.90212542874789</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>34.86645761919834</v>
+        <v>34.90209125786365</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.86200069527838</v>
+        <v>34.90210644327075</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>34.86162626256802</v>
+        <v>34.90210858574748</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.85703337658845</v>
+        <v>34.90209862832048</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.856663263838</v>
+        <v>34.90210261615879</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>34.85691074882752</v>
+        <v>34.90210271945465</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>34.86213960256419</v>
+        <v>34.90210447725052</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>34.86153574587262</v>
+        <v>34.90210003013576</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>34.86156501760096</v>
+        <v>34.90210199874697</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.84119104917963</v>
+        <v>34.90210573873396</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.84140789145179</v>
+        <v>34.90210780661522</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>34.84137026321297</v>
+        <v>34.90210857798556</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>34.8398536528434</v>
+        <v>34.9021015310221</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>34.84016518355547</v>
+        <v>34.90210828754905</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>34.84003675585166</v>
+        <v>34.90210957916511</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.83869566131169</v>
+        <v>34.90209311259301</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.83769145132597</v>
+        <v>34.90211121767367</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>34.83705553192087</v>
+        <v>34.90211383412593</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.83232430162255</v>
+        <v>34.90209715434563</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.8317077121195</v>
+        <v>34.9021081938016</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.83157964052542</v>
+        <v>34.90210868555108</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.8401727380575</v>
+        <v>34.90211069715038</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.83832763564569</v>
+        <v>34.90210902716136</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.83805038623698</v>
+        <v>34.90210930483537</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.81011738847899</v>
+        <v>34.90211185583258</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>34.81026655325677</v>
+        <v>34.90211487612589</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.81022117684044</v>
+        <v>34.90211507374218</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.80676119804467</v>
+        <v>34.90210701447769</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>34.80732623439403</v>
+        <v>34.90211372044268</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.80726928596722</v>
+        <v>34.90211522508994</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.83228035674263</v>
+        <v>34.90209325126713</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>34.83316851731963</v>
+        <v>34.902113758107</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.83315223080016</v>
+        <v>34.90211462773202</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.8296732559587</v>
+        <v>34.90209886231185</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.8285285946653</v>
+        <v>34.90211051109074</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.82865734565873</v>
+        <v>34.90211147414178</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.83472414934444</v>
+        <v>34.9021143336852</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>34.83421159374003</v>
+        <v>34.90211153817491</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>34.83426574136183</v>
+        <v>34.90211563264699</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.8004395381287</v>
+        <v>34.90211870475091</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.80032063633259</v>
+        <v>34.90212169724811</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.80026916111314</v>
+        <v>34.90212238624797</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>34.79695574652943</v>
+        <v>34.90211311464646</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>34.79688047694764</v>
+        <v>34.90212064543827</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>34.79678679910601</v>
+        <v>34.90212263115409</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.87386175794153</v>
+        <v>34.90209230641742</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>34.86727902012198</v>
+        <v>34.90210863394275</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>34.86713931950383</v>
+        <v>34.90211039980552</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>34.86268530379103</v>
+        <v>34.90209895092572</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>34.86240396968592</v>
+        <v>34.90210381996918</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.86240538057924</v>
+        <v>34.90210359615327</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.86713391949696</v>
+        <v>34.90210481054967</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>34.86651210313609</v>
+        <v>34.90210115391534</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.8665538054718</v>
+        <v>34.90210279970687</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.84853934847571</v>
+        <v>34.9021055444061</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.84879636490906</v>
+        <v>34.90210785225984</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.84875478901963</v>
+        <v>34.90210851424681</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.84749110807883</v>
+        <v>34.90210082279436</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>34.84766675595677</v>
+        <v>34.90210832520589</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.84758070303145</v>
+        <v>34.90210931740125</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.84567801158475</v>
+        <v>34.90209342303458</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>34.84436985133215</v>
+        <v>34.90211195554618</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.84467347190524</v>
+        <v>34.90211474834388</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.8392430380748</v>
+        <v>34.90209750447515</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.83908779345722</v>
+        <v>34.9021086855999</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.83886525517406</v>
+        <v>34.90210938850296</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.84660441870092</v>
+        <v>34.90211126673607</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>34.84497707445693</v>
+        <v>34.90210960163741</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.84495206530703</v>
+        <v>34.90210996018391</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34.81870506332427</v>
+        <v>34.9021134417236</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.82062613338288</v>
+        <v>34.90211655896503</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.82047792467283</v>
+        <v>34.90211680233308</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.8189261251328</v>
+        <v>34.90210860901817</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.81889229255985</v>
+        <v>34.90211548507931</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>34.81851387664518</v>
+        <v>34.90211706996463</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.83867925064669</v>
+        <v>34.90209371349485</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.83786008365983</v>
+        <v>34.90211473305458</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.83770275802117</v>
+        <v>34.90211583406194</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>34.83211343776674</v>
+        <v>34.902098898921</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>34.83128481692979</v>
+        <v>34.90211096446154</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>34.83145193681738</v>
+        <v>34.90211205320262</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.83959641163647</v>
+        <v>34.9021150360164</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.83796233377478</v>
+        <v>34.90211225157049</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>34.83779889857577</v>
+        <v>34.90211629900282</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>34.80795998889528</v>
+        <v>34.90211978849238</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.80955918304329</v>
+        <v>34.90212286091199</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>34.80938921711663</v>
+        <v>34.90212357297111</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>34.80802640501461</v>
+        <v>34.90211403747941</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>34.80770755876315</v>
+        <v>34.90212173713801</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>34.80715622348416</v>
+        <v>34.90212389823365</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>34.87287258100462</v>
+        <v>34.9020911784997</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.87661400609329</v>
+        <v>34.90210643800609</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>34.87736538279653</v>
+        <v>34.90210838579591</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.87536655586827</v>
+        <v>34.90209977827588</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>34.87500767594484</v>
+        <v>34.9021040125147</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.87480466675099</v>
+        <v>34.90210417328568</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>34.87669845388356</v>
+        <v>34.90210482409123</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.8763410917681</v>
+        <v>34.90210094292208</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.87447510019297</v>
+        <v>34.90210276550248</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>34.86155351282186</v>
+        <v>34.90210710798643</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.86164042011806</v>
+        <v>34.90210922025572</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.86161220715843</v>
+        <v>34.9021099490896</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>34.86061434850969</v>
+        <v>34.90210308203156</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>34.86071112720708</v>
+        <v>34.9021098931323</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.86001213764704</v>
+        <v>34.90211106311682</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>34.85478138805745</v>
+        <v>34.90209182693562</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>34.85511524145337</v>
+        <v>34.90210855885363</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>34.85608251972707</v>
+        <v>34.90211168922543</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>34.85191500023074</v>
+        <v>34.9020941804726</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>34.85135525655914</v>
+        <v>34.90210402233042</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>34.85110422151768</v>
+        <v>34.90210520736697</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>34.85517761723246</v>
+        <v>34.90210779132461</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.85473285771991</v>
+        <v>34.90210508180115</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>34.84949532798316</v>
+        <v>34.9021058974134</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.82537909774277</v>
+        <v>34.90210829481926</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.82553126714932</v>
+        <v>34.90211101281525</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.82561468651339</v>
+        <v>34.90211137535076</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.82331835092945</v>
+        <v>34.90210410713416</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>34.82360539948128</v>
+        <v>34.90210990444067</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.82381765729022</v>
+        <v>34.9021117854757</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.84051488594562</v>
+        <v>34.90209344395099</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>34.84164596268615</v>
+        <v>34.90211277536779</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.84171327855221</v>
+        <v>34.90211382225612</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.83478497904855</v>
+        <v>34.90209789608396</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.83611431131884</v>
+        <v>34.90210867472553</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.8359914694748</v>
+        <v>34.90210970013229</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.84196431757798</v>
+        <v>34.90211325581069</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>34.8424788394866</v>
+        <v>34.90210970863984</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.84238147063085</v>
+        <v>34.90211376373833</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>34.81540759451315</v>
+        <v>34.90211643477479</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.81567475558222</v>
+        <v>34.90211919069248</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.81568755681797</v>
+        <v>34.90211990198721</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>34.81296661121744</v>
+        <v>34.90211130843345</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>34.81362190342585</v>
+        <v>34.90211813703756</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>34.81363061620964</v>
+        <v>34.90212024070292</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>34.86618715555562</v>
+        <v>34.90208960927368</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>34.86656945525176</v>
+        <v>34.90210317400516</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>34.86631311383548</v>
+        <v>34.90210495607865</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>34.86185885502699</v>
+        <v>34.90209504261675</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>34.86192497877072</v>
+        <v>34.90209812129763</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>34.86205906796383</v>
+        <v>34.9020982167937</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>34.86638845704172</v>
+        <v>34.90209967980133</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>34.86625427895277</v>
+        <v>34.90209485414123</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>34.86623428032691</v>
+        <v>34.90209671813702</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.84839555296002</v>
+        <v>34.90209924569688</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>34.84846970606442</v>
+        <v>34.90210097486986</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>34.84844244115343</v>
+        <v>34.90210169173318</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34.84704557045659</v>
+        <v>34.90209580326218</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>34.84735268823756</v>
+        <v>34.90210162292428</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>34.84723838768539</v>
+        <v>34.90210276234866</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>34.8434992288509</v>
+        <v>34.90209134228235</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>34.84441884870709</v>
+        <v>34.9021070658191</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>34.84400692916748</v>
+        <v>34.90211009919771</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>34.83825350881929</v>
+        <v>34.90209283715932</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.83887478842936</v>
+        <v>34.90210205429455</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.8386970749483</v>
+        <v>34.90210321353456</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>34.84522985493415</v>
+        <v>34.9021054104531</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>34.84498801819607</v>
+        <v>34.90210258349708</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>34.84751558793643</v>
+        <v>34.90210349731507</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>34.82092841169145</v>
+        <v>34.90210540782937</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>34.82099124208714</v>
+        <v>34.90210795637067</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.82094866741516</v>
+        <v>34.90210834595961</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>34.81901529616219</v>
+        <v>34.90210166975952</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.81911336614182</v>
+        <v>34.90210698752082</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.81783736337955</v>
+        <v>34.90210884721865</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.84182457954218</v>
+        <v>34.90209327979707</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.84188198840408</v>
+        <v>34.90211132246912</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.8421152084597</v>
+        <v>34.90211255599569</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.83784956053423</v>
+        <v>34.90209655982403</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.83680975964485</v>
+        <v>34.9021066496426</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.83657593664245</v>
+        <v>34.9021077927389</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>34.84160851044188</v>
+        <v>34.90211102487979</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.84122354805183</v>
+        <v>34.90210723507266</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.84121605281677</v>
+        <v>34.90211132982353</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.8121467369935</v>
+        <v>34.90211379107999</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.8119485550482</v>
+        <v>34.90211633057632</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.81189725357824</v>
+        <v>34.90211709570154</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>34.81034228057599</v>
+        <v>34.90210921655417</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>34.8096908869964</v>
+        <v>34.90211539268343</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.80823454345047</v>
+        <v>34.90211759564264</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.86968295961319</v>
+        <v>34.90208911953841</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.86996625242809</v>
+        <v>34.90210657653852</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>34.86993282179574</v>
+        <v>34.90210842862302</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.86558396319373</v>
+        <v>34.90209728668968</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>34.8656491689687</v>
+        <v>34.90210210254935</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.86562923197431</v>
+        <v>34.90210121760922</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>34.86949104570058</v>
+        <v>34.90210544053525</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>34.8694603597713</v>
+        <v>34.90210025636461</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.86946564806811</v>
+        <v>34.90210212451698</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.85297793169542</v>
+        <v>34.90210739490575</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.85302925536103</v>
+        <v>34.90210988701301</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.85300828045021</v>
+        <v>34.90211042210623</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.85174844180343</v>
+        <v>34.90210287882348</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.85192379496934</v>
+        <v>34.90211077506098</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.85186348810878</v>
+        <v>34.90211169819532</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>34.84766221018423</v>
+        <v>34.90209380009165</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>34.84819781269446</v>
+        <v>34.90211536666103</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>34.84831281333939</v>
+        <v>34.90211774519782</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>34.84167279381348</v>
+        <v>34.90209909403633</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.8424540207793</v>
+        <v>34.90211199084482</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.84230757309338</v>
+        <v>34.90211258217185</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.84811284651671</v>
+        <v>34.90211354325221</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.84836208524406</v>
+        <v>34.90211497290832</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.84795028665342</v>
+        <v>34.90211493122895</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.82318359855048</v>
+        <v>34.90211940608189</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>34.82327939147311</v>
+        <v>34.9021231745846</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>34.82323471963976</v>
+        <v>34.90212331904724</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>34.82122823258475</v>
+        <v>34.90211327159535</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>34.82141897505593</v>
+        <v>34.90212222876619</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.82134181541398</v>
+        <v>34.90212347903773</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.84021791730468</v>
+        <v>34.90209307604081</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.84113032734901</v>
+        <v>34.90211858122129</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.84105142604263</v>
+        <v>34.90211914977731</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.83388425468033</v>
+        <v>34.90210018816398</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.83404944151185</v>
+        <v>34.90211521994158</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.83410239961431</v>
+        <v>34.9021159343504</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.84131780171322</v>
+        <v>34.90211712936458</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>34.84099822331596</v>
+        <v>34.90211829000206</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>34.84084482913431</v>
+        <v>34.90212100007558</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.81265204011663</v>
+        <v>34.90212719625072</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>34.81271654262942</v>
+        <v>34.90213145397145</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>34.81265220855831</v>
+        <v>34.90213186472045</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.81048289123381</v>
+        <v>34.90212008098644</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.81064075000175</v>
+        <v>34.90213114811623</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>34.81043311398011</v>
+        <v>34.90213248248033</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.87747510347126</v>
+        <v>34.9020928225339</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.87846484471001</v>
+        <v>34.90210818760276</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.87842845638805</v>
+        <v>34.90211011843844</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.87648318676745</v>
+        <v>34.9021003732669</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>34.87595004248277</v>
+        <v>34.90210549281868</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.87596681649929</v>
+        <v>34.90210560757349</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.87781213419149</v>
+        <v>34.90210579932693</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.87576449965309</v>
+        <v>34.90210322589675</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.87573746385365</v>
+        <v>34.90210493001748</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>34.86332873713444</v>
+        <v>34.90210784015761</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>34.86340542358275</v>
+        <v>34.90211008239454</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.86337911866664</v>
+        <v>34.90211079890769</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.86243573147916</v>
+        <v>34.90210359738283</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.8618925783953</v>
+        <v>34.9021106321273</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.86186346030193</v>
+        <v>34.90211175185343</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.85695551642654</v>
+        <v>34.90209403602024</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.85818225733824</v>
+        <v>34.90211063976583</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.85813776089291</v>
+        <v>34.9021133820105</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.85411562581483</v>
+        <v>34.90209739474783</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>34.85333194555511</v>
+        <v>34.90210748207745</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.85337478814549</v>
+        <v>34.90210844524677</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.85730372676247</v>
+        <v>34.90211079114485</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.85267074972334</v>
+        <v>34.90210888843064</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.85335140708494</v>
+        <v>34.9021093217903</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.82946403299365</v>
+        <v>34.90211174923809</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.82951462963531</v>
+        <v>34.90211452477518</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.82961867049168</v>
+        <v>34.90211473596857</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>34.82767069464699</v>
+        <v>34.90210738202772</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>34.82770065417429</v>
+        <v>34.9021133448088</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.82740574011059</v>
+        <v>34.90211491426341</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>34.84431646633443</v>
+        <v>34.90209464724357</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.8453378808818</v>
+        <v>34.90211349627489</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.8478763614234</v>
+        <v>34.90211432997884</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.83919266112807</v>
+        <v>34.90209942380933</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.84025252742193</v>
+        <v>34.90211012867439</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.84006854089994</v>
+        <v>34.90211101039976</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.84589220841479</v>
+        <v>34.90211436738695</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>34.84620784945659</v>
+        <v>34.90211135918123</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.84721377399091</v>
+        <v>34.90211526878011</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>34.82000955732802</v>
+        <v>34.90211805871245</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>34.82016059445992</v>
+        <v>34.90212073217587</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>34.82022888945843</v>
+        <v>34.90212139848041</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>34.8178922234058</v>
+        <v>34.9021128287142</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>34.81823900352565</v>
+        <v>34.90211954732062</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.81337488323965</v>
+        <v>34.90212151012314</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.87874653815901</v>
+        <v>34.9020993665631</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.87885807975503</v>
+        <v>34.90211163537342</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.87886580269089</v>
+        <v>34.90211268609746</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.87577256008221</v>
+        <v>34.90210568541654</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>34.87572844375699</v>
+        <v>34.90211021701285</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.8758503399653</v>
+        <v>34.90210934268028</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>34.87872377333819</v>
+        <v>34.90211172675227</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>34.87863705460691</v>
+        <v>34.90210990738674</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.87870479464364</v>
+        <v>34.90211114065666</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>34.86666164772646</v>
+        <v>34.90211477753294</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.8666878467198</v>
+        <v>34.90211674219392</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.86670506883159</v>
+        <v>34.90211694415792</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.86581243997273</v>
+        <v>34.90211140500993</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.86592179610793</v>
+        <v>34.90211729896963</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.86887420699524</v>
+        <v>34.90211771797693</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.86340455412541</v>
+        <v>34.90209981041329</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>34.86356001348582</v>
+        <v>34.90211355433622</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.864225823914</v>
+        <v>34.902114750048</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.85891417008538</v>
+        <v>34.90210253644152</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>34.85903787800275</v>
+        <v>34.90211051419678</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.85903369198122</v>
+        <v>34.90211112803093</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.86380014690806</v>
+        <v>34.90211140379814</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>34.86391034107533</v>
+        <v>34.90211382352609</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.86384962376743</v>
+        <v>34.90211357618776</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.84466491999346</v>
+        <v>34.90211756331786</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.84464763003879</v>
+        <v>34.90212004130414</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.84461440032128</v>
+        <v>34.90212008605466</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.84338733904116</v>
+        <v>34.90211368122444</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.84297629421311</v>
+        <v>34.90211970648331</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.84291246174078</v>
+        <v>34.90212026044227</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>34.85944497336907</v>
+        <v>34.90209852983499</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.85896439271696</v>
+        <v>34.90211557994174</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.85889715683282</v>
+        <v>34.90211554537311</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.85419771545111</v>
+        <v>34.90210200708236</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.85380750183564</v>
+        <v>34.90211229196763</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>34.85374969734315</v>
+        <v>34.9021123933906</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.85850036781058</v>
+        <v>34.9021128505883</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>34.85954397961329</v>
+        <v>34.90211577346734</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.85946238707138</v>
+        <v>34.90211628121952</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.83882447872886</v>
+        <v>34.90212117148258</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>34.83871285341602</v>
+        <v>34.90212424124739</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>34.83868747727622</v>
+        <v>34.90212426367287</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>34.83756170868251</v>
+        <v>34.90211644316202</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>34.83678083001244</v>
+        <v>34.90212455704792</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.83674488011561</v>
+        <v>34.90212479138699</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>34.88861566483973</v>
+        <v>34.90210373048837</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.88864485502473</v>
+        <v>34.9021071059663</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.8886374423169</v>
+        <v>34.90210751912289</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.88684961702715</v>
+        <v>34.90210697761295</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>34.88684785931025</v>
+        <v>34.90210844327898</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34.88684957548713</v>
+        <v>34.90210884350551</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.88854350594085</v>
+        <v>34.90210712375692</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.88851797888367</v>
+        <v>34.90210808501769</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.8885097442473</v>
+        <v>34.90210823687585</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.88152018727814</v>
+        <v>34.90211358996369</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.88152834731957</v>
+        <v>34.9021142803511</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.88152372299523</v>
+        <v>34.90211436410583</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.88102041993099</v>
+        <v>34.90211268143972</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.88105812434051</v>
+        <v>34.90211467307844</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>34.88104338929553</v>
+        <v>34.90211494598148</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.87910062800839</v>
+        <v>34.90210391436904</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.87923691214228</v>
+        <v>34.90210753649896</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.87923168239616</v>
+        <v>34.90211021053259</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.87631325651497</v>
+        <v>34.90210873746354</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.87648462058665</v>
+        <v>34.9021115608843</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>34.87645199662089</v>
+        <v>34.90211429304418</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>34.87910800346761</v>
+        <v>34.902108745413</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>34.87916816222603</v>
+        <v>34.90211071254278</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>34.87960947100517</v>
+        <v>34.90211288410755</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.86861217449001</v>
+        <v>34.90211305391128</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.86865488703997</v>
+        <v>34.90211403168339</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.86863878869042</v>
+        <v>34.90211473036703</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.86778014024283</v>
+        <v>34.90211133097429</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.8678367375098</v>
+        <v>34.90211347009336</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>34.86783564107274</v>
+        <v>34.90211558512674</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>34.8763235603387</v>
+        <v>34.90210561941136</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.87640256282513</v>
+        <v>34.9021099746159</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>34.87645318053016</v>
+        <v>34.90211120224271</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>34.87312091764318</v>
+        <v>34.90211050958888</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.8731653960293</v>
+        <v>34.90211406472445</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.87318607379452</v>
+        <v>34.90211644106923</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>34.87639807210942</v>
+        <v>34.90211223203782</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>34.87632605454235</v>
+        <v>34.90211446501404</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.87631117552393</v>
+        <v>34.90211586371939</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>34.86355431175463</v>
+        <v>34.90211959738007</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.86358416109913</v>
+        <v>34.90212060298035</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.86357181792297</v>
+        <v>34.90212098612113</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.86261913616844</v>
+        <v>34.90211734598194</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.86261052640149</v>
+        <v>34.90211995800895</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.862631967133</v>
+        <v>34.90212078683966</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>34.87862046470368</v>
+        <v>34.90209729244523</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>34.87898620611315</v>
+        <v>34.902112871276</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>34.87896486017388</v>
+        <v>34.90211436176231</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.87620477784103</v>
+        <v>34.90210502885674</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.87608738463403</v>
+        <v>34.90211178104678</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>34.87609665580339</v>
+        <v>34.90211135624578</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.87871950011966</v>
+        <v>34.90211146987052</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.87814740944646</v>
+        <v>34.90211132704065</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.87815650526828</v>
+        <v>34.90211234724597</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>34.86628445022196</v>
+        <v>34.90211535076396</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>34.86631317644684</v>
+        <v>34.90211791665223</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>34.86611821000792</v>
+        <v>34.90211836965558</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>34.86527472313345</v>
+        <v>34.90211086088878</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.86530425076204</v>
+        <v>34.90211844337489</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.86557248890679</v>
+        <v>34.90211906340916</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.86125811827545</v>
+        <v>34.90209597963933</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.86105334015735</v>
+        <v>34.90211181693638</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.86094165889798</v>
+        <v>34.90211364818134</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.85597777566935</v>
+        <v>34.90209939453771</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.85583639601833</v>
+        <v>34.90210909161312</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.8539054454027</v>
+        <v>34.90210950738604</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.859679541248</v>
+        <v>34.902111806806</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.85954078672559</v>
+        <v>34.90211191169344</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>34.8594881746567</v>
+        <v>34.90211143759547</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.83816690126741</v>
+        <v>34.9021138760849</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.83824470331661</v>
+        <v>34.90211663146886</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>34.83824099849841</v>
+        <v>34.90211657512793</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.8358258027753</v>
+        <v>34.90210940723463</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.83611641336351</v>
+        <v>34.90211571507529</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.83613203144501</v>
+        <v>34.90211654240859</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.85361277366907</v>
+        <v>34.9020956462255</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.85369782435765</v>
+        <v>34.90211395687649</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.85369544150616</v>
+        <v>34.9021141529315</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.84652891278423</v>
+        <v>34.90209989757166</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>34.84698383716062</v>
+        <v>34.90211044777887</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.84693764126595</v>
+        <v>34.90211091194499</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.85364732449636</v>
+        <v>34.90211364007973</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>34.85347114829307</v>
+        <v>34.90211306551793</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>34.85341185143546</v>
+        <v>34.90211578964057</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>34.82907820480656</v>
+        <v>34.90211837025429</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>34.82917031328279</v>
+        <v>34.90212114286861</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>34.82915126710785</v>
+        <v>34.90212147932687</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>34.82601973144241</v>
+        <v>34.90211290741656</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.82593783401369</v>
+        <v>34.90212023460927</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>34.8259647473629</v>
+        <v>34.90212144676104</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.87664494900908</v>
+        <v>34.90209623649041</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>34.87668407065804</v>
+        <v>34.90210514387773</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>34.87654978066035</v>
+        <v>34.90210602603754</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>34.87310801903455</v>
+        <v>34.90210002350693</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>34.87315925515126</v>
+        <v>34.90210250134559</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>34.87326024473917</v>
+        <v>34.90210162809619</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.87656630937757</v>
+        <v>34.9021045491782</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>34.87636390088861</v>
+        <v>34.90210164848819</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>34.87645341482954</v>
+        <v>34.90210211489691</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.86326527451313</v>
+        <v>34.90210526183168</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.86331358494641</v>
+        <v>34.90210653088123</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.86330151528581</v>
+        <v>34.90210670875594</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.86559243038918</v>
+        <v>34.90210322863075</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.86580917073855</v>
+        <v>34.90210710540455</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>34.86570993972671</v>
+        <v>34.90210750429044</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.86045196763583</v>
+        <v>34.90209829554211</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>34.86032909724264</v>
+        <v>34.90211059515075</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.86013852277646</v>
+        <v>34.90211163406206</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.85370742911382</v>
+        <v>34.90209928449891</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.85396647155299</v>
+        <v>34.90210720539304</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.85416576699368</v>
+        <v>34.90210752097696</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>34.85987886879598</v>
+        <v>34.90210768655955</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.8596818914729</v>
+        <v>34.90210995470422</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.85963463896627</v>
+        <v>34.90210981992015</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.83763912837729</v>
+        <v>34.90211155917833</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.83759452873571</v>
+        <v>34.90211383429092</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>34.83715683018316</v>
+        <v>34.90211376032337</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>34.83566668230543</v>
+        <v>34.90210793161938</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>34.835660463808</v>
+        <v>34.9021135582161</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.83617992835317</v>
+        <v>34.90211400209922</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.85486185917387</v>
+        <v>34.90209860331084</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.85433848042869</v>
+        <v>34.90211328707939</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.85411369038734</v>
+        <v>34.90211319927214</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.84912784125014</v>
+        <v>34.90210102860074</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.84882407057947</v>
+        <v>34.90211043295707</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.84844928803336</v>
+        <v>34.90211039137805</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.85496123935061</v>
+        <v>34.90211060517132</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>34.85467728488603</v>
+        <v>34.90211325464477</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>34.85452671899277</v>
+        <v>34.90211402389162</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.83083141144689</v>
+        <v>34.90211707049225</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>34.83066443033641</v>
+        <v>34.90211973326389</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.83022487435913</v>
+        <v>34.90211978618199</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.82876361007894</v>
+        <v>34.90211274367837</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>34.82787844364785</v>
+        <v>34.90211975413366</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.82782082337071</v>
+        <v>34.90212009554467</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>34.88867451912419</v>
+        <v>34.90210180715478</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>34.88872714696902</v>
+        <v>34.90210491791056</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>34.88872112632441</v>
+        <v>34.90210539319712</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.88692764792389</v>
+        <v>34.90210399509768</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>34.88690725448604</v>
+        <v>34.90210528311943</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.88691642923055</v>
+        <v>34.90210575206397</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.88861858748633</v>
+        <v>34.90210439588067</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>34.8886003882122</v>
+        <v>34.90210515713856</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.8886186250305</v>
+        <v>34.90210535529994</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.88161028688526</v>
+        <v>34.90211034625982</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.88162537597982</v>
+        <v>34.90211097378107</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.88162240349148</v>
+        <v>34.90211109785915</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>34.88112680649851</v>
+        <v>34.9021096031668</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.88215860233707</v>
+        <v>34.90211140236251</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.88215512263267</v>
+        <v>34.9021117210923</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>34.87929451066883</v>
+        <v>34.90210224918043</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>34.87961303709389</v>
+        <v>34.90210568174326</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.87964778746389</v>
+        <v>34.90210881466736</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>34.87653685983513</v>
+        <v>34.9021066770508</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.87668696479194</v>
+        <v>34.90210941033907</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>34.87664194206702</v>
+        <v>34.9021125366101</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.87998010321932</v>
+        <v>34.90210663098206</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>34.88009682972289</v>
+        <v>34.90210856257659</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.88007812402611</v>
+        <v>34.90211118614724</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.86899737709653</v>
+        <v>34.90211102848532</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.86905743403911</v>
+        <v>34.90211198323311</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>34.8690377500585</v>
+        <v>34.90211283392357</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>34.86819705382938</v>
+        <v>34.90210942856112</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>34.8676298974592</v>
+        <v>34.90211144913648</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.86764972978641</v>
+        <v>34.90211391727102</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>34.87663434520967</v>
+        <v>34.90210472533371</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>34.87694687644541</v>
+        <v>34.90210885306145</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.87693598440983</v>
+        <v>34.90211035461731</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.87347766208466</v>
+        <v>34.90210901261749</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>34.87352451588514</v>
+        <v>34.90211235070861</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.87352628857332</v>
+        <v>34.90211501222128</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>34.8767095691851</v>
+        <v>34.90211089292699</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>34.87674899630413</v>
+        <v>34.90211290956709</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.87669932850549</v>
+        <v>34.90211460990531</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>34.86391402229046</v>
+        <v>34.90211847048819</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.86395524654804</v>
+        <v>34.90211941611663</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>34.86393040208971</v>
+        <v>34.90211987961009</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>34.86305101453382</v>
+        <v>34.90211636623386</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.86382529519033</v>
+        <v>34.90211880535981</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.86402656070583</v>
+        <v>34.90211983867002</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>34.8773435036158</v>
+        <v>34.90209653630846</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>34.87705289602563</v>
+        <v>34.9021106081633</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>34.87693174238434</v>
+        <v>34.90211212390052</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.8742970830519</v>
+        <v>34.90210461227677</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>34.87406795162079</v>
+        <v>34.90210918058219</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.87258017486514</v>
+        <v>34.90210873038598</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>34.87565920087681</v>
+        <v>34.90211073439733</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.87557811825824</v>
+        <v>34.9021080239506</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>34.8756143693817</v>
+        <v>34.90210928817309</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.86276807363495</v>
+        <v>34.90211443971603</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.86283706456953</v>
+        <v>34.90211659072629</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>34.86246991215157</v>
+        <v>34.90211699647582</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>34.86144446379544</v>
+        <v>34.90211074167048</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.86161579156259</v>
+        <v>34.9021173761347</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.86207922077261</v>
+        <v>34.90211804013295</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>34.85732600760176</v>
+        <v>34.9020961014271</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>34.85689621297881</v>
+        <v>34.90211201470854</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.85672753410925</v>
+        <v>34.90211371576584</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.85171360136763</v>
+        <v>34.90209964368157</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.85138657343307</v>
+        <v>34.90210904083695</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.84824856098994</v>
+        <v>34.90210909330025</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.85496061639294</v>
+        <v>34.90211123347327</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>34.85474023801243</v>
+        <v>34.90211130749626</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.85469932308129</v>
+        <v>34.90211093572672</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>34.83125230246588</v>
+        <v>34.90211419253174</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>34.83131548391516</v>
+        <v>34.90211682176978</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>34.83129385792315</v>
+        <v>34.90211687729293</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.8279572419762</v>
+        <v>34.90210971551752</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.82836060593275</v>
+        <v>34.90211623299457</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>34.82834919217223</v>
+        <v>34.90211702938882</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.84801918346353</v>
+        <v>34.90209459531017</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.84820499811404</v>
+        <v>34.90211315800887</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.84824076317873</v>
+        <v>34.90211368006707</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>34.83975885466536</v>
+        <v>34.90209988735881</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>34.84056426816536</v>
+        <v>34.90211030882408</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>34.84044001257202</v>
+        <v>34.90211095853778</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>34.8483676598836</v>
+        <v>34.90211325889276</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>34.84809053019152</v>
+        <v>34.90211293266891</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>34.84801568185306</v>
+        <v>34.90211520944315</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>34.82117530169595</v>
+        <v>34.90211833075713</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>34.82129118504302</v>
+        <v>34.90212121845593</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>34.82123962963153</v>
+        <v>34.902121550255</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.81987783720655</v>
+        <v>34.90211310218456</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>34.82011831323097</v>
+        <v>34.90212085698764</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.81998653806599</v>
+        <v>34.90212201004439</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>34.87554272668673</v>
+        <v>34.90209637233082</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>34.87562154441314</v>
+        <v>34.90211262899039</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>34.87545217699298</v>
+        <v>34.90211413866664</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>34.8719504852898</v>
+        <v>34.90210407299057</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>34.87201503468807</v>
+        <v>34.90211092641547</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.87209615152291</v>
+        <v>34.90211034942075</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.87545164708501</v>
+        <v>34.90211115078505</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>34.87520894679237</v>
+        <v>34.90211062088078</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>34.87535113435305</v>
+        <v>34.90211164231087</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.86169236571794</v>
+        <v>34.90211489916844</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>34.86174550254442</v>
+        <v>34.90211760001175</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.86172040144075</v>
+        <v>34.9021179965705</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>34.86506541917265</v>
+        <v>34.90211030295607</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.8653086670494</v>
+        <v>34.902118215841</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.86519239773155</v>
+        <v>34.9021187871226</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.85901606776121</v>
+        <v>34.90209519410134</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.85898937203156</v>
+        <v>34.90211194697768</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.85865852432197</v>
+        <v>34.90211391515152</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.85175488135398</v>
+        <v>34.90209937239155</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>34.85209819381974</v>
+        <v>34.90210949158447</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.8521002511981</v>
+        <v>34.90210997785043</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.8579505583354</v>
+        <v>34.90211208138974</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>34.8578324874832</v>
+        <v>34.90211235792194</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>34.85782413741943</v>
+        <v>34.9021118820087</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>34.83422272752401</v>
+        <v>34.90211476100622</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.83416772176022</v>
+        <v>34.90211762129875</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>34.83366959024028</v>
+        <v>34.90211761393189</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>34.83208981393311</v>
+        <v>34.90210997030571</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.83208621731958</v>
+        <v>34.90211671118282</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34.83278126962436</v>
+        <v>34.90211761714334</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>34.85347305614925</v>
+        <v>34.90209461868724</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.85282447267464</v>
+        <v>34.90211424800105</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.8526271001045</v>
+        <v>34.90211457583011</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.84771057375774</v>
+        <v>34.90209941738587</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>34.8473594557688</v>
+        <v>34.90211073993741</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.84576475004366</v>
+        <v>34.9021113322905</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>34.85258570502406</v>
+        <v>34.90211399770845</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.85235803476733</v>
+        <v>34.90211381559935</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>34.85230271762968</v>
+        <v>34.90211651919044</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.82616147982884</v>
+        <v>34.90211901370391</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>34.8259606164659</v>
+        <v>34.90212202445949</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.8254046096384</v>
+        <v>34.90212237126644</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>34.82387190070624</v>
+        <v>34.90211314713992</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>34.82622974169806</v>
+        <v>34.90212118667736</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>34.82618609074434</v>
+        <v>34.90212244772185</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.201</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.556</v>
+        <v>22.079</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.826</v>
+        <v>21.563</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.415</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.367</v>
+        <v>20.778</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>34.90209590444678</v>
+        <v>-0.9080008904674237</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34.90210811049317</v>
+        <v>36.26042898576473</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.90210927387719</v>
+        <v>44.15733633044657</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34.90210154912425</v>
+        <v>15.34627640456845</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34.90210540798216</v>
+        <v>24.74951072922441</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34.90210444762994</v>
+        <v>30.27166164552726</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34.9021078152693</v>
+        <v>26.75737209696261</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.90210467248978</v>
+        <v>29.33854214273877</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.90210598745529</v>
+        <v>33.41288381341552</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.90210974254797</v>
+        <v>37.08997509420111</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.90211158320721</v>
+        <v>44.01533519662233</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.90211183725676</v>
+        <v>47.17389278372433</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34.90210667978929</v>
+        <v>23.28069499037984</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.90211228924111</v>
+        <v>39.06933045821073</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.90211280036706</v>
+        <v>45.27088159942421</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>34.90209722914854</v>
+        <v>3.731670952981727</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.90211187402852</v>
+        <v>40.90468017610975</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.90211321104696</v>
+        <v>48.80297950602288</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>34.9020991081646</v>
+        <v>19.98391885963393</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34.90210765666689</v>
+        <v>29.39057356084866</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.90210826345781</v>
+        <v>34.91358013070736</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34.90210877033958</v>
+        <v>31.39819976131376</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.90211107565472</v>
+        <v>33.98198641061366</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.90211092129096</v>
+        <v>38.05698276864062</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.90211421002321</v>
+        <v>41.73466945444021</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.90211682529619</v>
+        <v>48.66194225781872</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>34.90211687435106</v>
+        <v>51.82106070954841</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.90211013927977</v>
+        <v>27.92356353789783</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.902116488385</v>
+        <v>43.71598332493316</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>34.90211713623013</v>
+        <v>49.91856829668755</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.90209637034243</v>
+        <v>11.18499304672603</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.90211449471747</v>
+        <v>48.35799822717875</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.90211447940926</v>
+        <v>56.25686606350301</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.90209948233763</v>
+        <v>27.43828012719437</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34.9021103566889</v>
+        <v>36.84544950659482</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>34.90211046642982</v>
+        <v>42.36892760565341</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.90211103777884</v>
+        <v>38.8531671078831</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.90211379547539</v>
+        <v>41.43760717901453</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>34.90211456870339</v>
+        <v>45.51296647164519</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.9021195357309</v>
+        <v>49.19163527314593</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.90212276732814</v>
+        <v>56.11910791409126</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34.90212283337485</v>
+        <v>59.27847737312696</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.90211463293225</v>
+        <v>35.37988889519794</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.90212317787506</v>
+        <v>51.17279188967085</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>34.90212351019729</v>
+        <v>57.37588373073878</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>34.90209294111185</v>
+        <v>0.2571904833216472</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.90211088300937</v>
+        <v>37.42634319793397</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.90211293370891</v>
+        <v>45.32291953006971</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.90210286203815</v>
+        <v>16.51188244985563</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.90210871143422</v>
+        <v>25.91577643665549</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.9021086885703</v>
+        <v>31.43766380870305</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.9021092338414</v>
+        <v>27.92306892134318</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.9021061382709</v>
+        <v>30.5048170547826</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.90210797703614</v>
+        <v>34.57895129997085</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.90211271853836</v>
+        <v>38.25605071522078</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.90211536562964</v>
+        <v>45.18165187416695</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>34.90211608399851</v>
+        <v>48.3400041425965</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>34.90210758853122</v>
+        <v>24.44622947340188</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.90211594091492</v>
+        <v>40.23557978723089</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.9021170797273</v>
+        <v>46.43684021621321</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>34.90209239416163</v>
+        <v>4.895688601370903</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.90211215800536</v>
+        <v>42.06942069785087</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.90211510425267</v>
+        <v>49.96738890219056</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.90209710325705</v>
+        <v>21.14835117771529</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.90210898429165</v>
+        <v>30.55566552900676</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.90210984515505</v>
+        <v>36.07840846100588</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.90211217346642</v>
+        <v>32.56272289066622</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.90211063473599</v>
+        <v>35.14708760474888</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.90211090722179</v>
+        <v>39.22187645541156</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.90211442116025</v>
+        <v>42.89957134994835</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>34.902117751462</v>
+        <v>49.82708521020548</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.90211798107928</v>
+        <v>52.98599828208806</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.90210916505615</v>
+        <v>29.08792436099223</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.90211659884406</v>
+        <v>44.88105898926811</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>34.90211823912966</v>
+        <v>51.08335314328677</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.90209245130195</v>
+        <v>12.35044692566406</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.90211500257395</v>
+        <v>49.52417499877025</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.90211602869889</v>
+        <v>57.42271170256116</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.90209853935487</v>
+        <v>28.60414868552264</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.90211144794035</v>
+        <v>38.01197775475178</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.90211251377202</v>
+        <v>43.53519220373731</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>34.90211594374966</v>
+        <v>40.01912654572889</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.90211342174179</v>
+        <v>42.60414471538444</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>34.90211753372557</v>
+        <v>46.67929649293818</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>34.90212050634442</v>
+        <v>50.35797345500417</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>34.90212384259873</v>
+        <v>57.28568716527012</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.90212454231909</v>
+        <v>60.444851241362</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>34.9021141946989</v>
+        <v>36.54568597237095</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.90212262721381</v>
+        <v>52.33930384346012</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.90212477549311</v>
+        <v>58.54210485725547</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.90209113627787</v>
+        <v>-0.4609869889051375</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.90210929868434</v>
+        <v>36.70818395692378</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.90211125959974</v>
+        <v>44.60470965912496</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>34.90210053041595</v>
+        <v>15.79365177072917</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.90210648735768</v>
+        <v>25.19753655571843</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.90210635184182</v>
+        <v>30.7193746981702</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>34.90210718461218</v>
+        <v>27.20484360240424</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.90210417753071</v>
+        <v>29.78658023128035</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>34.90210584089217</v>
+        <v>33.86066070068112</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.90211053231096</v>
+        <v>37.53788657879635</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.90211323007423</v>
+        <v>44.46347989102343</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.90211390479318</v>
+        <v>47.62180822638798</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>34.90210549385994</v>
+        <v>23.72809478639361</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.90211394732398</v>
+        <v>39.51744173478833</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.90211497427457</v>
+        <v>45.71864418469566</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>34.90209188747269</v>
+        <v>4.178057770832179</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.90211176719506</v>
+        <v>41.35180811971701</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.9021147765101</v>
+        <v>49.24972569090595</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>34.90209662074964</v>
+        <v>20.43066717849295</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.90210852688461</v>
+        <v>29.83797233904054</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.90210935399195</v>
+        <v>35.36066604089886</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>34.90211191643204</v>
+        <v>31.84504426418321</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>34.90211028861886</v>
+        <v>34.42939748476054</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.90211055106117</v>
+        <v>38.5041325577016</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.90211387838323</v>
+        <v>42.18195389087371</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.90211721092946</v>
+        <v>49.10945990629101</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>34.90211744427119</v>
+        <v>52.26834904384917</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.90210854272537</v>
+        <v>28.37033633484098</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.90211601097078</v>
+        <v>44.16346761315036</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.90211768703612</v>
+        <v>50.36570378566488</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.90209256770893</v>
+        <v>11.63281117374934</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.90211533653157</v>
+        <v>48.80655750302456</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.90211640102046</v>
+        <v>56.70504357282719</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>34.902099358889</v>
+        <v>27.88645976675262</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.9021122579674</v>
+        <v>37.29427964808268</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.90211340886919</v>
+        <v>42.81744486739284</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>34.90211668278174</v>
+        <v>39.30144299658933</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.90211412184014</v>
+        <v>41.88644967667493</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34.90211833189722</v>
+        <v>45.96154767632264</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.90212144538578</v>
+        <v>49.64035106992752</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>34.90212479572342</v>
+        <v>56.56805693899229</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>34.90212550032543</v>
+        <v>59.72719708131329</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.90211498516359</v>
+        <v>35.82809301770361</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>34.90212352550608</v>
+        <v>51.62170754296766</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>34.90212572769168</v>
+        <v>57.82445057518315</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>34.90209449557049</v>
+        <v>-6.376473076121119</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.90210658975487</v>
+        <v>30.79166767556192</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>34.90210761387711</v>
+        <v>38.68846550149782</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>34.90209931742925</v>
+        <v>9.87736733883035</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>34.90210287170818</v>
+        <v>19.2804099021216</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>34.90210179267513</v>
+        <v>24.80245669143993</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>34.90210532471548</v>
+        <v>21.28822830551381</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.90210164165955</v>
+        <v>23.86924751073409</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.90210298460612</v>
+        <v>27.94349944442193</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.90210625948274</v>
+        <v>31.62075798374756</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.90210801088513</v>
+        <v>38.54605103656171</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.9021082636871</v>
+        <v>41.70456668763016</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.9021033403013</v>
+        <v>17.81176134868131</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>34.902108793087</v>
+        <v>33.60017325081706</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.90210923796254</v>
+        <v>39.80161348341572</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>34.90209476744258</v>
+        <v>-1.737130907912633</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>34.90210894173958</v>
+        <v>35.43558916078926</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.90211047487359</v>
+        <v>43.33377895213322</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>34.90209507064775</v>
+        <v>14.51468011113398</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>34.90210304933745</v>
+        <v>23.92114302219407</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.90210378187291</v>
+        <v>29.44404544485074</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>34.90210471795084</v>
+        <v>25.92872626829567</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.90210617709854</v>
+        <v>28.51236205066787</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.9021062323532</v>
+        <v>32.58726865307743</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.90210909093403</v>
+        <v>36.26512262025174</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.90211155987833</v>
+        <v>43.19232835917386</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.90211168431346</v>
+        <v>46.35140486769738</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>34.90210548435832</v>
+        <v>22.45430019133265</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.90211134100441</v>
+        <v>38.24649638107859</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.90211214360811</v>
+        <v>44.44897042245019</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.90209431198349</v>
+        <v>5.716848362506976</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.90211197067891</v>
+        <v>42.88956440545211</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.90211216815926</v>
+        <v>50.78832270259703</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.9020959012086</v>
+        <v>21.96969856792166</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.90210622288195</v>
+        <v>31.37667617315217</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.9021064993346</v>
+        <v>36.90005012051652</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>34.90210760858754</v>
+        <v>33.38435083428645</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.90210940216691</v>
+        <v>35.9686400489163</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>34.90211043235135</v>
+        <v>40.04390958232692</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>34.90211520777423</v>
+        <v>43.72274562903236</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>34.90211827110785</v>
+        <v>50.6501512113333</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>34.90211842570532</v>
+        <v>53.80947872600619</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.90211076217307</v>
+        <v>29.91128272031845</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>34.90211880858534</v>
+        <v>45.70396213314312</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>34.90211933872565</v>
+        <v>51.90694304049167</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>34.90209668091799</v>
+        <v>3.138997348858521</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.90210855199493</v>
+        <v>40.30756325014248</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.90210943526161</v>
+        <v>48.20437788777927</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>34.90210057193769</v>
+        <v>19.39343660659823</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.90210450268977</v>
+        <v>28.79688973937764</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.90210338836876</v>
+        <v>34.31898150567029</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.90210664670551</v>
+        <v>30.80468083364347</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.90210389567459</v>
+        <v>33.38607523102608</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.90210509836939</v>
+        <v>37.46037019810761</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.90210756793816</v>
+        <v>41.13734734678324</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34.90210937858058</v>
+        <v>48.06280841081069</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.90210955878583</v>
+        <v>51.22133883963691</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>34.90210448961371</v>
+        <v>27.32787638340151</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>34.90211004229905</v>
+        <v>43.11673492211933</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.90211036701863</v>
+        <v>49.31821566684947</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.90209801479622</v>
+        <v>7.779806971145586</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.90211193965028</v>
+        <v>44.95295221751358</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.90211317571859</v>
+        <v>52.85115879923795</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.90210017023841</v>
+        <v>24.0322169320476</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.90210814486355</v>
+        <v>33.43909043774418</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.90210869193863</v>
+        <v>38.96203781455903</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.90210903374601</v>
+        <v>35.44664639703306</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.9021112170589</v>
+        <v>38.03065739965653</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.90211105121006</v>
+        <v>42.10560701250436</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.90211458782167</v>
+        <v>45.78317957989644</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.90211707360587</v>
+        <v>52.71055334091942</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>34.90211714129458</v>
+        <v>55.86964461719661</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>34.90211081835899</v>
+        <v>31.97188279870771</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.90211682235608</v>
+        <v>47.76452565562771</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>34.90209689687578</v>
+        <v>15.23293691082015</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>34.90211408073085</v>
+        <v>52.4060780946986</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.90211429217675</v>
+        <v>60.30485319285491</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.90209977401138</v>
+        <v>31.48638600835271</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.90211002130278</v>
+        <v>40.89377417956938</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.90211031594625</v>
+        <v>46.41719308970595</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.90211071927024</v>
+        <v>42.90142154636258</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.90211324238429</v>
+        <v>45.48608595650579</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.90211402321295</v>
+        <v>49.56139850677128</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.90211895560111</v>
+        <v>53.23995317150728</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>34.90212199429435</v>
+        <v>60.16752676477289</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.90212210291123</v>
+        <v>63.32686905072624</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.90211437875666</v>
+        <v>39.42801593956129</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.90212241186767</v>
+        <v>55.22114198663301</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.90212287626946</v>
+        <v>61.42416339029943</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>34.90209291436987</v>
+        <v>5.362073424910459</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>34.90210553969064</v>
+        <v>42.52972102920886</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.90210724368077</v>
+        <v>50.42594618446502</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>34.90209751943255</v>
+        <v>21.61635794314439</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>34.9020999666599</v>
+        <v>31.01992878113525</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.90209991187407</v>
+        <v>36.54158835840234</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.90210236368163</v>
+        <v>33.02722499247567</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>34.90209715346381</v>
+        <v>35.60896988473949</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>34.90209902495558</v>
+        <v>39.68293460665403</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.90210247521953</v>
+        <v>43.35971076763074</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>34.90210403674872</v>
+        <v>50.28507524435155</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>34.90210465909779</v>
+        <v>53.44331932421845</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.90209902290297</v>
+        <v>29.55030024283836</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.9021045232236</v>
+        <v>45.33908248095791</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>34.90210561663637</v>
+        <v>51.54007916857994</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.9020938511104</v>
+        <v>10.00339142775077</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.90211022993801</v>
+        <v>47.17561824242874</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>34.90211221854575</v>
+        <v>55.07323519037207</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>34.90209763603596</v>
+        <v>26.25564681423644</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.90210737268026</v>
+        <v>35.66263790419156</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.90210744551415</v>
+        <v>41.18515297784391</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.90210891922165</v>
+        <v>37.66969904552012</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.90210751549214</v>
+        <v>40.25406044370457</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.90210773304694</v>
+        <v>44.32867971560914</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>34.90211057086098</v>
+        <v>48.00605132433428</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>34.90211328536608</v>
+        <v>54.93332843306005</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>34.90211349661396</v>
+        <v>58.09213328783868</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.90210643952357</v>
+        <v>34.19481509398962</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.90211264815697</v>
+        <v>49.98738152228417</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>34.90211382186467</v>
+        <v>56.1894118627141</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.90209411563658</v>
+        <v>17.45715149969577</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>34.90211260949286</v>
+        <v>54.62937425094968</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.90211372964019</v>
+        <v>62.52755969253199</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.90209861612443</v>
+        <v>33.71044596586692</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>34.9021092525409</v>
+        <v>43.11795171582843</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.90211030134782</v>
+        <v>48.64093830153375</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>34.90211237393727</v>
+        <v>45.12510429759583</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>34.90211025748049</v>
+        <v>47.71011908825061</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>34.90211370675546</v>
+        <v>51.78510128204572</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.90211584641012</v>
+        <v>55.46345492782301</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.90211862120607</v>
+        <v>62.39093186163642</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>34.90211924204544</v>
+        <v>65.54998771555789</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.90211098881338</v>
+        <v>41.65157825712639</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>34.90211790748184</v>
+        <v>57.44462786576842</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>34.9021197933213</v>
+        <v>63.64716505990758</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>34.90209324248418</v>
+        <v>-3.292185185362786</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.90210625814033</v>
+        <v>33.87518067707116</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>34.90210826440978</v>
+        <v>41.77160806521725</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.90210032854121</v>
+        <v>12.96163706835555</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>34.90210273708789</v>
+        <v>22.36470300133952</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.90210287738111</v>
+        <v>27.88649042110181</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.9021052777898</v>
+        <v>24.37225348404636</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34.90209971700514</v>
+        <v>26.9534700624067</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.90210176184984</v>
+        <v>31.02753580191596</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.90210657584972</v>
+        <v>34.70460373456102</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>34.90210821445643</v>
+        <v>41.62974802419158</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.90210892631134</v>
+        <v>44.78804541236603</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.9021030239144</v>
+        <v>20.89566205027107</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>34.90210865628494</v>
+        <v>36.68393417358708</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.9021099385707</v>
+        <v>42.88508364118137</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.90209307043659</v>
+        <v>1.347069284442551</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>34.9021096602616</v>
+        <v>38.51901439729043</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.90211197778988</v>
+        <v>46.41683367782615</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.90209643624488</v>
+        <v>17.59886223226463</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.902106262025</v>
+        <v>27.00534844737534</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.90210654396544</v>
+        <v>32.5279914682112</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>34.90210838855528</v>
+        <v>29.01266378022033</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>34.90210660392771</v>
+        <v>31.59649688030832</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>34.902106960288</v>
+        <v>35.67121727143636</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.90210957485998</v>
+        <v>39.34888058257546</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.90211228632094</v>
+        <v>46.27593751895755</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>34.90211254479784</v>
+        <v>49.43479572407874</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>34.90210533497424</v>
+        <v>25.53811316544839</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.9021115317755</v>
+        <v>41.33016950791408</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>34.90211290216605</v>
+        <v>47.53235274243058</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.9020929488393</v>
+        <v>8.801331172961664</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>34.90211180586007</v>
+        <v>45.97327227407912</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.90211282864217</v>
+        <v>53.87166002001037</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.90209676698623</v>
+        <v>25.05416326427006</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.90210745292826</v>
+        <v>34.46116417852816</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>34.90210845173449</v>
+        <v>39.98427869264138</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>34.9021112305094</v>
+        <v>36.46857093028426</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.90210870167004</v>
+        <v>39.05305746455927</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.90211233557278</v>
+        <v>43.12814076333881</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.90211421247513</v>
+        <v>46.80678613845474</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>34.90211703212503</v>
+        <v>53.73404291629173</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>34.90211764572599</v>
+        <v>56.89315210989103</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>34.90210933202808</v>
+        <v>32.99537824624211</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>34.90211634486403</v>
+        <v>48.78791781873916</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.90211820361781</v>
+        <v>54.99060788516975</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>34.9020923224184</v>
+        <v>-1.613970697169879</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>34.90210961255623</v>
+        <v>35.55473615402126</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.90211113953175</v>
+        <v>43.45157004137194</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.90209962320085</v>
+        <v>14.64036468095183</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>34.90210475962014</v>
+        <v>24.04378741837602</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.90210366844979</v>
+        <v>29.56588044255885</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>34.90210733638329</v>
+        <v>26.05149808668851</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>34.90210286830303</v>
+        <v>28.63282667693873</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.90210449729232</v>
+        <v>32.70711791221059</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.90210915149112</v>
+        <v>36.38427576614889</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.90211166139964</v>
+        <v>43.30974537232792</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.90211209689145</v>
+        <v>46.4682784391449</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>34.90210438388876</v>
+        <v>22.57486047968062</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.90211240894862</v>
+        <v>38.36372054457</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.90211310320154</v>
+        <v>44.56520575298542</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>34.90209567520289</v>
+        <v>3.025873923072236</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.90211668528143</v>
+        <v>40.19916013477005</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>34.90211872136692</v>
+        <v>48.0973859738766</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>34.90210162741541</v>
+        <v>19.27817994169946</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>34.90211411388528</v>
+        <v>28.68502305920115</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>34.90211444838064</v>
+        <v>34.20797170063632</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>34.90211515036626</v>
+        <v>30.6924985810633</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.90211669988673</v>
+        <v>33.27644377828766</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34.90211649920558</v>
+        <v>37.35138966476937</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>34.90212156174277</v>
+        <v>41.02914296305174</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>34.9021252350869</v>
+        <v>47.95652527313062</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.90212533848059</v>
+        <v>51.1156191896997</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>34.90211562535373</v>
+        <v>27.21790186736176</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>34.90212440027563</v>
+        <v>43.01054625845903</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.90212543237285</v>
+        <v>49.21306525791077</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>34.90209429477618</v>
+        <v>10.47951325272502</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>34.90211908792576</v>
+        <v>47.65279541560163</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.90211965615677</v>
+        <v>55.55158977379993</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.90210133796114</v>
+        <v>26.7328584371056</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>34.90211601159641</v>
+        <v>36.14021623639086</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.9021166591105</v>
+        <v>41.6636364123252</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.9021176827479</v>
+        <v>38.14778317221429</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>34.90211894780649</v>
+        <v>40.73238179279939</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.9021213963387</v>
+        <v>44.80769061803402</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>34.90212777975763</v>
+        <v>48.48642600671188</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>34.90213190039466</v>
+        <v>55.41400815566611</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>34.90213228386049</v>
+        <v>58.57335308357072</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>34.9021208647099</v>
+        <v>34.67454444419194</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>34.90213162304916</v>
+        <v>50.46767204292767</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.90213290346045</v>
+        <v>56.67069791924722</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>34.90209594193291</v>
+        <v>10.77783006833338</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>34.9021116655186</v>
+        <v>47.94649226042746</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>34.90211365915407</v>
+        <v>55.84293380422012</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>34.90210504822764</v>
+        <v>27.03307862210145</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>34.90210936742008</v>
+        <v>36.4370278482712</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.90210938052169</v>
+        <v>41.95885350849288</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>34.90211065456486</v>
+        <v>38.4443969527574</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>34.9021066116709</v>
+        <v>41.02634317495175</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.9021085933275</v>
+        <v>45.10043251799628</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.90211396548568</v>
+        <v>48.77729433341197</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>34.90211619334508</v>
+        <v>55.70283830597474</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>34.9021168523581</v>
+        <v>58.86114545945541</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.90210934336743</v>
+        <v>34.96744161098489</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.90211661401538</v>
+        <v>50.75675511569339</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.902117799581</v>
+        <v>56.95793168862768</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>34.90209552710344</v>
+        <v>15.41644698364631</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.90211414040535</v>
+        <v>52.58968846014066</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.90211654712074</v>
+        <v>60.48752183309772</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.90210115679425</v>
+        <v>31.66966620416666</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>34.90211242659512</v>
+        <v>41.07703573880075</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.90211270466027</v>
+        <v>46.59971692616988</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.90211404661955</v>
+        <v>43.08416970657389</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.90211301824343</v>
+        <v>45.668732472776</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>34.90211315528604</v>
+        <v>49.74347639618837</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>34.90211751066182</v>
+        <v>53.42093369749249</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.90212063566852</v>
+        <v>60.34839033541776</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.90212086347803</v>
+        <v>63.50725827648522</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.90211244705081</v>
+        <v>39.60925526941172</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.90211969542011</v>
+        <v>55.40235302318091</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.90212105751059</v>
+        <v>61.60456328487338</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.90209464592368</v>
+        <v>22.87002416066978</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.90211579903863</v>
+        <v>60.04326156902628</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.90211688200623</v>
+        <v>67.94166343143421</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.90210092171209</v>
+        <v>39.124282485845</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>34.90211318557913</v>
+        <v>48.53216668624155</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>34.90211426054246</v>
+        <v>54.05531938276043</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.90211653069263</v>
+        <v>50.53939208668372</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.90211480914098</v>
+        <v>53.12460825700985</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.90211837848458</v>
+        <v>57.19971509896924</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.90212122243251</v>
+        <v>60.87815449874596</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.90212446771571</v>
+        <v>67.80581096764898</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>34.90212505981712</v>
+        <v>70.96492990384012</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.90211533147555</v>
+        <v>47.06583562437662</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.90212349963483</v>
+        <v>62.85941656559804</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.90212542874789</v>
+        <v>69.06213367734436</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>34.90209125786365</v>
+        <v>-6.930876731024927</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.90210644327075</v>
+        <v>30.2361258929768</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>34.90210858574748</v>
+        <v>38.1324608232171</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.90209862832048</v>
+        <v>9.322204464644738</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.90210261615879</v>
+        <v>18.7252876730365</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>34.90210271945465</v>
+        <v>24.24699250691092</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>34.90210447725052</v>
+        <v>20.7326029080351</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>34.90210003013576</v>
+        <v>23.31387466757392</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>34.90210199874697</v>
+        <v>27.38788168227357</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.90210573873396</v>
+        <v>31.06487697199234</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.90210780661522</v>
+        <v>37.98998482649937</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>34.90210857798556</v>
+        <v>41.14823890346382</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>34.9021015310221</v>
+        <v>17.25599202777662</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>34.90210828754905</v>
+        <v>33.04418140977792</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>34.90210957916511</v>
+        <v>39.2452476277392</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.90209311259301</v>
+        <v>-2.291963109085959</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.90211121767367</v>
+        <v>34.87961871549099</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>34.90211383412593</v>
+        <v>42.77734553389949</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.90209715434563</v>
+        <v>13.9590887865712</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.9021081938016</v>
+        <v>23.36559222485742</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.90210868555108</v>
+        <v>28.88815266197194</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.90211069715038</v>
+        <v>25.3726723240661</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.90210902716136</v>
+        <v>27.95656056629739</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.90210930483537</v>
+        <v>32.03122223093838</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.90211185583258</v>
+        <v>35.70881287968551</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>34.90211487612589</v>
+        <v>42.63583335590839</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.90211507374218</v>
+        <v>45.79464824349076</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.90210701447769</v>
+        <v>21.89810222302865</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>34.90211372044268</v>
+        <v>37.69007577348496</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.90211522508994</v>
+        <v>43.89217575614155</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.90209325126713</v>
+        <v>5.162397868192539</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>34.902113758107</v>
+        <v>42.33397570203282</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.90211462773202</v>
+        <v>50.23227098009816</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.90209886231185</v>
+        <v>21.41448893487948</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.90211051109074</v>
+        <v>30.8215070854528</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.90211147414178</v>
+        <v>36.34453901292805</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.9021143336852</v>
+        <v>32.82867857883546</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>34.90211153817491</v>
+        <v>35.41322026815668</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>34.90211563264699</v>
+        <v>39.48824484051498</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.90211870475091</v>
+        <v>43.16681751349437</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.90212169724811</v>
+        <v>50.09403783812955</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.90212238624797</v>
+        <v>53.25310371713407</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>34.90211311464646</v>
+        <v>29.35546638651838</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>34.90212064543827</v>
+        <v>45.14792318401042</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>34.90212263115409</v>
+        <v>51.35052999592686</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.90209230641742</v>
+        <v>0.4767501796292031</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>34.90210863394275</v>
+        <v>37.64493328821196</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>34.90211039980552</v>
+        <v>45.54123917968637</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>34.90209895092572</v>
+        <v>16.73068154112307</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>34.90210381996918</v>
+        <v>26.13430582418446</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.90210359615327</v>
+        <v>31.65596226578382</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.90210481054967</v>
+        <v>28.14157833180898</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>34.90210115391534</v>
+        <v>30.72322981775072</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.90210279970687</v>
+        <v>34.79718038235738</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.9021055444061</v>
+        <v>38.47413616302298</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.90210785225984</v>
+        <v>45.39956988068592</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.90210851424681</v>
+        <v>48.55781930355793</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.90210082279436</v>
+        <v>24.66461617639389</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>34.90210832520589</v>
+        <v>40.45353356773499</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.90210931740125</v>
+        <v>46.6545475064646</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.90209342303458</v>
+        <v>5.117314027042863</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>34.90211195554618</v>
+        <v>42.2900764322777</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.90211474834388</v>
+        <v>50.18777416306988</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.90209750447515</v>
+        <v>21.36921618371512</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.9021086855999</v>
+        <v>30.77626075830686</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.90210938850296</v>
+        <v>36.29877274038846</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.90211126673607</v>
+        <v>32.78329818844951</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>34.90210960163741</v>
+        <v>35.36756620544848</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.90210996018391</v>
+        <v>39.44217135635209</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34.9021134417236</v>
+        <v>43.11972256866282</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.90211655896503</v>
+        <v>50.04706894555396</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.90211680233308</v>
+        <v>53.20587915923703</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.90210860901817</v>
+        <v>29.30837684450874</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.90211548507931</v>
+        <v>45.10107847725452</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>34.90211706996463</v>
+        <v>51.30312611463249</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.90209371349485</v>
+        <v>12.57192881882632</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.90211473305458</v>
+        <v>49.74468720778405</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.90211583406194</v>
+        <v>57.64295343258844</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>34.902098898921</v>
+        <v>28.82487011410374</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>34.90211096446154</v>
+        <v>38.23242939970565</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>34.90211205320262</v>
+        <v>43.75541289448732</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.9021150360164</v>
+        <v>40.23955825735298</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.90211225157049</v>
+        <v>42.82447971870361</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>34.90211629900282</v>
+        <v>46.89944779354992</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>34.90211978849238</v>
+        <v>50.5779810139562</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.90212286091199</v>
+        <v>57.50552723821441</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>34.90212357297111</v>
+        <v>60.66458845637111</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>34.90211403747941</v>
+        <v>36.76599481131937</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>34.90212173713801</v>
+        <v>52.55917968121433</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>34.90212389823365</v>
+        <v>58.76173417388951</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>34.9020911784997</v>
+        <v>-7.169572951683467</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.90210643800609</v>
+        <v>29.99818071578202</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>34.90210838579591</v>
+        <v>37.8944942503591</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.90209977827588</v>
+        <v>9.083951108396359</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>34.9021040125147</v>
+        <v>18.48720737975246</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.90210417328568</v>
+        <v>24.00885857157844</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>34.90210482409123</v>
+        <v>20.49456116216536</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.90210094292208</v>
+        <v>23.07588091069406</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.90210276550248</v>
+        <v>27.14982377602164</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>34.90210710798643</v>
+        <v>30.82705335382444</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.90210922025572</v>
+        <v>37.75230442743633</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.9021099490896</v>
+        <v>40.91053574527403</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>34.90210308203156</v>
+        <v>17.0180357627929</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>34.9021098931323</v>
+        <v>32.80653840426292</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.90211106311682</v>
+        <v>39.00754868665852</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>34.90209182693562</v>
+        <v>-2.531353767267223</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>34.90210855885363</v>
+        <v>34.64097917238722</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>34.90211168922543</v>
+        <v>42.53868456757162</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>34.9020941804726</v>
+        <v>13.72014093038443</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>34.90210402233042</v>
+        <v>23.12681747074144</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>34.90210520736697</v>
+        <v>28.64932423219544</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>34.90210779132461</v>
+        <v>25.133936126639</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.90210508180115</v>
+        <v>27.71787237808006</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>34.9021058974134</v>
+        <v>31.79246986204462</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.90210829481926</v>
+        <v>35.47029484833591</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.90211101281525</v>
+        <v>42.39745856879084</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.90211137535076</v>
+        <v>45.55625068711855</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.90210410713416</v>
+        <v>21.65945154392714</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>34.90210990444067</v>
+        <v>37.45173839812638</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.9021117854757</v>
+        <v>43.65378241103859</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.90209344395099</v>
+        <v>4.924076252222317</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>34.90211277536779</v>
+        <v>42.09640521360926</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.90211382225612</v>
+        <v>49.99467907921324</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.90209789608396</v>
+        <v>21.17661013593122</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.90210867472553</v>
+        <v>30.58380141604151</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.90210970013229</v>
+        <v>36.10677967087507</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.90211325581069</v>
+        <v>32.59101150368143</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>34.90210970863984</v>
+        <v>35.17560122558096</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.90211376373833</v>
+        <v>39.25056161879091</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>34.90211643477479</v>
+        <v>42.92936861087638</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.90211919069248</v>
+        <v>49.85673219035071</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.90211990198721</v>
+        <v>53.01577530170185</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>34.90211130843345</v>
+        <v>29.11788479180221</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>34.90211813703756</v>
+        <v>44.91065491718187</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>34.90212024070292</v>
+        <v>51.11320576473746</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>34.90208960927368</v>
+        <v>-10.64899816212791</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>34.90210317400516</v>
+        <v>26.51760698866574</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>34.90210495607865</v>
+        <v>34.41368842448058</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>34.90209504261675</v>
+        <v>5.603691657132099</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>34.90209812129763</v>
+        <v>15.00656974518425</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>34.9020982167937</v>
+        <v>20.52802072503264</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>34.90209967980133</v>
+        <v>17.01383314021335</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>34.90209485414123</v>
+        <v>19.59496792753621</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>34.90209671813702</v>
+        <v>23.66876076843583</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.90209924569688</v>
+        <v>27.34593986369303</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>34.90210097486986</v>
+        <v>34.27097504003835</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>34.90210169173318</v>
+        <v>37.42912553473387</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34.90209580326218</v>
+        <v>13.53743757267419</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>34.90210162292428</v>
+        <v>29.32537371883846</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>34.90210276234866</v>
+        <v>35.52617598107723</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>34.90209134228235</v>
+        <v>-6.010053778136371</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>34.9021070658191</v>
+        <v>31.16113052891727</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>34.90211009919771</v>
+        <v>39.0586037986585</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>34.90209283715932</v>
+        <v>10.24060678414922</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.90210205429455</v>
+        <v>19.64690504917244</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.90210321353456</v>
+        <v>25.16921158488672</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>34.9021054104531</v>
+        <v>21.65393334551241</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>34.90210258349708</v>
+        <v>24.23768456645278</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>34.90210349731507</v>
+        <v>28.31213201398166</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>34.90210540782937</v>
+        <v>31.98990648257425</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>34.90210795637067</v>
+        <v>38.91685425699676</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.90210834595961</v>
+        <v>42.07556554385881</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>34.90210166975952</v>
+        <v>18.1795785036155</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.90210698752082</v>
+        <v>33.97129876399912</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.90210884721865</v>
+        <v>40.1731347380513</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.90209327979707</v>
+        <v>1.445463217104798</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.90211132246912</v>
+        <v>38.61664356037987</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.90211255599569</v>
+        <v>46.51468529229372</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.90209655982403</v>
+        <v>17.69716294108285</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.9021066496426</v>
+        <v>27.10397594414563</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.9021077927389</v>
+        <v>32.62675396589223</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>34.90211102487979</v>
+        <v>29.11109567363028</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.90210723507266</v>
+        <v>31.69550035757457</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.90211132982353</v>
+        <v>35.77031070986457</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.90211379107999</v>
+        <v>39.44906712790394</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.90211633057632</v>
+        <v>46.37621476015714</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.90211709570154</v>
+        <v>49.53517703772773</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>34.90210921655417</v>
+        <v>25.63809864128335</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>34.90211539268343</v>
+        <v>41.43030217334875</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.90211759564264</v>
+        <v>47.63264497479643</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.90208911953841</v>
+        <v>-2.901191122777181</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.90210657653852</v>
+        <v>34.26749634551753</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>34.90210842862302</v>
+        <v>42.16440369444329</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.90209728668968</v>
+        <v>13.35307189495471</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>34.90210210254935</v>
+        <v>22.75636044630549</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.90210121760922</v>
+        <v>28.27849954318343</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>34.90210544053525</v>
+        <v>24.76421181152021</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>34.90210025636461</v>
+        <v>27.34538333733779</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.90210212451698</v>
+        <v>31.41970858573243</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.90210739490575</v>
+        <v>35.09691014155509</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.90210988701301</v>
+        <v>42.02231495223019</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.90211042210623</v>
+        <v>45.18086022656517</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.90210287882348</v>
+        <v>21.28758929885201</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.90211077506098</v>
+        <v>37.07632250374785</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.90211169819532</v>
+        <v>43.27786141477314</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>34.90209380009165</v>
+        <v>1.737520897168093</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>34.90211536666103</v>
+        <v>38.91078773247419</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>34.90211774519782</v>
+        <v>46.80908706251613</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>34.90209909403633</v>
+        <v>17.98975445692723</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.90211199084482</v>
+        <v>27.39646339147872</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.90211258217185</v>
+        <v>32.91945813635719</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.90211354325221</v>
+        <v>29.40407958357308</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.90211497290832</v>
+        <v>31.98786771398009</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.90211493122895</v>
+        <v>36.06284764372889</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.90211940608189</v>
+        <v>39.74064463083708</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>34.9021231745846</v>
+        <v>46.66796214867348</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>34.90212331904724</v>
+        <v>49.82706828494416</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>34.90211327159535</v>
+        <v>25.92949798926234</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>34.90212222876619</v>
+        <v>41.72201552223417</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.90212347903773</v>
+        <v>47.92458825795801</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.90209307604081</v>
+        <v>9.191372428365735</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.90211858122129</v>
+        <v>46.36463523425196</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.90211914977731</v>
+        <v>54.2635030698069</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.90210018816398</v>
+        <v>25.44464518062464</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.90211521994158</v>
+        <v>34.85186881146613</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.9021159343504</v>
+        <v>40.37533508326224</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.90211712936458</v>
+        <v>36.85957641285607</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>34.90211829000206</v>
+        <v>39.44401798143404</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>34.90212100007558</v>
+        <v>43.51936084373118</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.90212719625072</v>
+        <v>47.19813993884269</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>34.90213145397145</v>
+        <v>54.12565730120603</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>34.90213186472045</v>
+        <v>57.28501444411926</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.90212008098644</v>
+        <v>33.38635281638447</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.90213114811623</v>
+        <v>49.17935357497548</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>34.90213248248033</v>
+        <v>55.38243317799741</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.9020928225339</v>
+        <v>-2.068893508479523</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.90210818760276</v>
+        <v>35.09892794513006</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.90211011843844</v>
+        <v>42.99528081616653</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.9021003732669</v>
+        <v>14.18484017333013</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>34.90210549281868</v>
+        <v>23.58830280520122</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.90210560757349</v>
+        <v>29.11000739446284</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.90210579932693</v>
+        <v>25.59557073890549</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.90210322589675</v>
+        <v>28.17709546852721</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.90210493001748</v>
+        <v>32.25109347037265</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>34.90210784015761</v>
+        <v>35.9280889739275</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>34.90211008239454</v>
+        <v>42.85341078047917</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.90211079890769</v>
+        <v>46.01167175314229</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.90210359738283</v>
+        <v>22.11882808793767</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.9021106321273</v>
+        <v>37.90751729080533</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.90211175185343</v>
+        <v>44.10858413574054</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.90209403602024</v>
+        <v>2.569464091291575</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.90211063976583</v>
+        <v>39.74186479221122</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.9021133820105</v>
+        <v>47.6396095241315</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.90209739474783</v>
+        <v>18.82116843828076</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>34.90210748207745</v>
+        <v>28.22805132404538</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.90210844524677</v>
+        <v>33.75061148138342</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.90211079114485</v>
+        <v>30.23508413525506</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.90210888843064</v>
+        <v>32.81922536124237</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.9021093217903</v>
+        <v>36.89387797841913</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.90211174923809</v>
+        <v>40.57146889931992</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.90211452477518</v>
+        <v>47.49870334568139</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.90211473596857</v>
+        <v>50.65752511777394</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>34.90210738202772</v>
+        <v>26.76038230380207</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>34.9021133448088</v>
+        <v>42.55285570411637</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.90211491426341</v>
+        <v>48.75495627724739</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>34.90209464724357</v>
+        <v>10.02411550083978</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.90211349627489</v>
+        <v>47.19651220360423</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.90211432997884</v>
+        <v>55.09482541275177</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.90209942380933</v>
+        <v>26.27685901756375</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.90211012867439</v>
+        <v>35.68425662378728</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.90211101039976</v>
+        <v>41.20728828156062</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.90211436738695</v>
+        <v>37.69138084644827</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>34.90211135918123</v>
+        <v>40.27617552624586</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.90211526878011</v>
+        <v>44.35119105852594</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>34.90211805871245</v>
+        <v>48.0297639965713</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>34.90212073217587</v>
+        <v>54.9571982951462</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>34.90212139848041</v>
+        <v>58.11627106515526</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>34.9021128287142</v>
+        <v>34.21803691630861</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>34.90211954732062</v>
+        <v>50.01099356683027</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.90212151012314</v>
+        <v>56.21360098183401</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.9020993665631</v>
+        <v>6.968656322033535</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.90211163537342</v>
+        <v>44.13811407179035</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.90211268609746</v>
+        <v>52.03509216998997</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.90210568541654</v>
+        <v>23.22391985521993</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>34.90211021701285</v>
+        <v>32.62773014016499</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.90210934268028</v>
+        <v>38.14994433724938</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>34.90211172675227</v>
+        <v>34.63549175600268</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>34.90210990738674</v>
+        <v>37.21709204942952</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.90211114065666</v>
+        <v>41.29148351316086</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>34.90211477753294</v>
+        <v>44.96849203859209</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.90211674219392</v>
+        <v>51.89413576634171</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.90211694415792</v>
+        <v>55.05272590509411</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.90211140500993</v>
+        <v>31.15860256281426</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.90211729896963</v>
+        <v>46.94795121085723</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.90211771797693</v>
+        <v>53.1495685176735</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.90209981041329</v>
+        <v>11.60782410370721</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>34.90211355433622</v>
+        <v>48.78186126172169</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.902114750048</v>
+        <v>56.68023132424297</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.90210253644152</v>
+        <v>27.86105821481588</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>34.90211051419678</v>
+        <v>37.26828892023148</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.90211112803093</v>
+        <v>42.79135874150244</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.90211140379814</v>
+        <v>39.27581536747526</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>34.90211382352609</v>
+        <v>41.86003229727554</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.90211357618776</v>
+        <v>45.93507842057225</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.90211756331786</v>
+        <v>49.61268240623427</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.90212004130414</v>
+        <v>56.54023886028163</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.90212008605466</v>
+        <v>59.69938985459008</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.90211368122444</v>
+        <v>35.80096711250222</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.90211970648331</v>
+        <v>51.59410012895647</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.90212026044227</v>
+        <v>57.79675123718344</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>34.90209852983499</v>
+        <v>19.06100911474708</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.90211557994174</v>
+        <v>56.23504220449819</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.90211554537311</v>
+        <v>64.13398078662259</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.90210200708236</v>
+        <v>35.31528237618475</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.90211229196763</v>
+        <v>44.72302775389754</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>34.9021123933906</v>
+        <v>50.24656911100827</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.9021128505883</v>
+        <v>46.73064561271802</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>34.90211577346734</v>
+        <v>49.31551595980532</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.90211628121952</v>
+        <v>53.3909250221535</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.90212117148258</v>
+        <v>57.06951114443346</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>34.90212424124739</v>
+        <v>63.99726743386928</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>34.90212426367287</v>
+        <v>67.15666943631821</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>34.90211644316202</v>
+        <v>43.25715539351857</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>34.90212455704792</v>
+        <v>59.05077160531856</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.90212479138699</v>
+        <v>65.25392959114684</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>34.90210373048837</v>
+        <v>1.233072582432992</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.9021071059663</v>
+        <v>38.40095433503733</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.90210751912289</v>
+        <v>46.29771194739349</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.90210697761295</v>
+        <v>17.48722858373376</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>34.90210844327898</v>
+        <v>26.89037123906142</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34.90210884350551</v>
+        <v>32.41241945134355</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.90210712375692</v>
+        <v>28.89821344356981</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.90210808501769</v>
+        <v>31.47940284765228</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.90210823687585</v>
+        <v>35.55366336748783</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.90211358996369</v>
+        <v>39.23067735104028</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.9021142803511</v>
+        <v>46.15596585671516</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.90211436410583</v>
+        <v>49.31447500052774</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.90211268143972</v>
+        <v>25.42159757519071</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.90211467307844</v>
+        <v>41.21004432926792</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>34.90211494598148</v>
+        <v>47.41147662370689</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.90210391436904</v>
+        <v>5.872594281385982</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.90210753649896</v>
+        <v>43.04505529104834</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.90211021053259</v>
+        <v>50.94320484842432</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.90210873746354</v>
+        <v>22.12472093190534</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.9021115608843</v>
+        <v>31.53128389612116</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>34.90211429304418</v>
+        <v>37.05418772627569</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>34.902108745413</v>
+        <v>33.53889094105749</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>34.90211071254278</v>
+        <v>36.12269689754827</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>34.90211288410755</v>
+        <v>40.19761207235352</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.90211305391128</v>
+        <v>43.87522147573496</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.90211403168339</v>
+        <v>50.80242264359445</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.90211473036703</v>
+        <v>53.96149263730386</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.90211133097429</v>
+        <v>30.06431592223337</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.90211347009336</v>
+        <v>45.85654692121589</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>34.90211558512674</v>
+        <v>52.05901300632739</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>34.90210561941136</v>
+        <v>13.32562768375542</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.9021099746159</v>
+        <v>50.49808464023793</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>34.90211120224271</v>
+        <v>58.39680270046311</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>34.90211050958888</v>
+        <v>29.57879347800904</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.90211406472445</v>
+        <v>38.98587110440131</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.90211644106923</v>
+        <v>44.50924645770452</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>34.90211223203782</v>
+        <v>40.99356955116615</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>34.90211446501404</v>
+        <v>43.57802890940864</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.90211586371939</v>
+        <v>47.6533070134136</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>34.90211959738007</v>
+        <v>51.33189851097426</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.90212060298035</v>
+        <v>58.25929951149634</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.90212098612113</v>
+        <v>61.41862050947644</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.90211734598194</v>
+        <v>37.52035251159576</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.90211995800895</v>
+        <v>53.31306670007289</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.90212078683966</v>
+        <v>59.51603964874492</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>34.90209729244523</v>
+        <v>-0.1815805314446557</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>34.902112871276</v>
+        <v>36.98781214333813</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>34.90211436176231</v>
+        <v>44.88459096274106</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.90210502885674</v>
+        <v>16.07298555826206</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.90211178104678</v>
+        <v>25.47683844253696</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>34.90211135624578</v>
+        <v>30.99887479730272</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.90211146987052</v>
+        <v>27.48432995047879</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.90211132704065</v>
+        <v>30.0659692756502</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.90211234724597</v>
+        <v>34.1402099926929</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>34.90211535076396</v>
+        <v>37.81735445554737</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>34.90211791665223</v>
+        <v>44.74298095210348</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>34.90211836965558</v>
+        <v>47.90143428385339</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>34.90211086088878</v>
+        <v>24.00748334217324</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.90211844337489</v>
+        <v>39.79684148834063</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.90211906340916</v>
+        <v>45.99826503002178</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.90209597963933</v>
+        <v>4.457367320151302</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.90211181693638</v>
+        <v>41.63133941942407</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.90211364818134</v>
+        <v>49.52951016910571</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.90209939453771</v>
+        <v>20.70990399639582</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.90210909161312</v>
+        <v>30.11717728268955</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.90210950738604</v>
+        <v>35.64006924317617</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.902111806806</v>
+        <v>32.12443365170269</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.90211191169344</v>
+        <v>34.70868959475102</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>34.90211143759547</v>
+        <v>38.78358495209839</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.9021138760849</v>
+        <v>42.46132486608893</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.90211663146886</v>
+        <v>49.38886408321194</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>34.90211657512793</v>
+        <v>52.54787824567721</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.90210940723463</v>
+        <v>28.6496279576372</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.90211571507529</v>
+        <v>44.44277046212788</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.90211654240859</v>
+        <v>50.6452277786003</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.9020956462255</v>
+        <v>11.91149554742934</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.90211395687649</v>
+        <v>49.08546361918933</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.9021141529315</v>
+        <v>56.98420287710813</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.90209989757166</v>
+        <v>28.16507142686531</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>34.90211044777887</v>
+        <v>37.57285942507291</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.90211091194499</v>
+        <v>43.09622291316838</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.90211364007973</v>
+        <v>39.58020719378634</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>34.90211306551793</v>
+        <v>42.1651165921355</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>34.90211578964057</v>
+        <v>46.24037488410077</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>34.90211837025429</v>
+        <v>49.91909689000703</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>34.90212114286861</v>
+        <v>56.84683595825912</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>34.90212147932687</v>
+        <v>60.00610113126207</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>34.90211290741656</v>
+        <v>36.10675949977632</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.90212023460927</v>
+        <v>51.90038524382736</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>34.90212144676104</v>
+        <v>58.10334943011115</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.90209623649041</v>
+        <v>-4.46787917232577</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>34.90210514387773</v>
+        <v>32.6993879842489</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>34.90210602603754</v>
+        <v>40.59599971270755</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>34.90210002350693</v>
+        <v>11.7856608011799</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>34.90210250134559</v>
+        <v>21.18858434881029</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>34.90210162809619</v>
+        <v>26.71052269776235</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.9021045491782</v>
+        <v>23.19628154756627</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>34.90210164848819</v>
+        <v>25.77735461516293</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>34.90210211489691</v>
+        <v>29.85153550505184</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.90210526183168</v>
+        <v>33.52853888374283</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.90210653088123</v>
+        <v>40.45366907758033</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.90210670875594</v>
+        <v>43.61208679107413</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.90210322863075</v>
+        <v>19.71967946032224</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.90210710540455</v>
+        <v>35.50780687507061</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>34.90210750429044</v>
+        <v>41.70911938320056</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.90209829554211</v>
+        <v>0.1716625508499696</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>34.90211059515075</v>
+        <v>37.34350894276416</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.90211163406206</v>
+        <v>45.24151261119856</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.90209928449891</v>
+        <v>16.42317318755509</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.90210720539304</v>
+        <v>25.82951701948751</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.90210752097696</v>
+        <v>31.3523110030802</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>34.90210768655955</v>
+        <v>27.83697906244945</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.90210995470422</v>
+        <v>30.42066866122523</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.90210981992015</v>
+        <v>34.49550422512117</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.90211155917833</v>
+        <v>38.17310295471599</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.90211383429092</v>
+        <v>45.10014579935397</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>34.90211376032337</v>
+        <v>48.25912435575741</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>34.90210793161938</v>
+        <v>24.3624177736351</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>34.9021135582161</v>
+        <v>40.15432940843958</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.90211400209922</v>
+        <v>46.35667571976352</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.90209860331084</v>
+        <v>7.625149996572173</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.90211328707939</v>
+        <v>44.79699235743293</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.90211319927214</v>
+        <v>52.69556451187246</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.90210102860074</v>
+        <v>23.87769978171682</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.90211043295707</v>
+        <v>33.28455829044945</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.90211039137805</v>
+        <v>38.80782378351829</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.90211060517132</v>
+        <v>35.29211173291866</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>34.90211325464477</v>
+        <v>37.87645474752684</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>34.90211402389162</v>
+        <v>41.95165323151808</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.90211707049225</v>
+        <v>45.6302340342729</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>34.90211973326389</v>
+        <v>52.5574767125995</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.90211978618199</v>
+        <v>55.71670626762794</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.90211274367837</v>
+        <v>31.81890840210415</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>34.90211975413366</v>
+        <v>47.61130324461304</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.90212009554467</v>
+        <v>53.81415640566557</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>34.90210180715478</v>
+        <v>0.04007970736379818</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>34.90210491791056</v>
+        <v>37.20778476915449</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>34.90210539319712</v>
+        <v>45.1045432999574</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.90210399509768</v>
+        <v>16.29412211511599</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>34.90210528311943</v>
+        <v>25.69716956504656</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.90210575206397</v>
+        <v>31.21921782359662</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.90210439588067</v>
+        <v>27.7050234362989</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>34.90210515713856</v>
+        <v>30.28614098054048</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.90210535529994</v>
+        <v>34.36040359530476</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.90211034625982</v>
+        <v>38.03743473956466</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.90211097378107</v>
+        <v>44.96267204074853</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.90211109785915</v>
+        <v>48.12118170533277</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>34.9021096031668</v>
+        <v>24.22845543133313</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.90211140236251</v>
+        <v>40.01678162776123</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.9021117210923</v>
+        <v>46.21821537684774</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>34.90210224918043</v>
+        <v>4.67934019646405</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>34.90210568174326</v>
+        <v>41.85162449875723</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.90210881466736</v>
+        <v>49.74977498234931</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>34.9021066770508</v>
+        <v>20.93135324215551</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.90210941033907</v>
+        <v>30.33782099029325</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>34.9021125366101</v>
+        <v>35.86072487609134</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.90210663098206</v>
+        <v>32.34543969405455</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>34.90210856257659</v>
+        <v>34.92917378161177</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.90211118614724</v>
+        <v>39.00409106088522</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.90211102848532</v>
+        <v>42.68171761731217</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.90211198323311</v>
+        <v>49.60886757575791</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>34.90211283392357</v>
+        <v>52.76793809401691</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>34.90210942856112</v>
+        <v>28.87091253955519</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>34.90211144913648</v>
+        <v>44.66302296791774</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.90211391727102</v>
+        <v>50.86549051794405</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>34.90210472533371</v>
+        <v>12.13240673319624</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>34.90210885306145</v>
+        <v>49.30468698706612</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.90211035461731</v>
+        <v>57.20340596931884</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.90210901261749</v>
+        <v>28.38545892632815</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>34.90211235070861</v>
+        <v>37.79244133815529</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.90211501222128</v>
+        <v>43.31581674498487</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>34.90211089292699</v>
+        <v>39.8001514426437</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>34.90211290956709</v>
+        <v>42.38453893369159</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.90211460990531</v>
+        <v>46.45981914060597</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>34.90211847048819</v>
+        <v>50.13842779074206</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.90211941611663</v>
+        <v>57.06577758203547</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>34.90211987961009</v>
+        <v>60.22509910316943</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>34.90211636623386</v>
+        <v>36.32698226611465</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.90211880535981</v>
+        <v>52.11957588671338</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.90211983867002</v>
+        <v>58.32255029755844</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>34.90209653630846</v>
+        <v>4.345090416520389</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>34.9021106081633</v>
+        <v>41.51323867752465</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>34.90211212390052</v>
+        <v>49.40982472880988</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.90210461227677</v>
+        <v>20.59976096188926</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>34.90210918058219</v>
+        <v>30.00313768116289</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.90210873038598</v>
+        <v>35.5250575224927</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>34.90211073439733</v>
+        <v>32.01079911058967</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.9021080239506</v>
+        <v>34.59220663680922</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>34.90210928817309</v>
+        <v>38.66636002595577</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.90211443971603</v>
+        <v>42.3433631338372</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.90211659072629</v>
+        <v>49.26870172657731</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>34.90211699647582</v>
+        <v>52.42708689170762</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>34.90211074167048</v>
+        <v>28.5340636627486</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.9021173761347</v>
+        <v>44.32277239153471</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.90211804013295</v>
+        <v>50.52405576246768</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>34.9020961014271</v>
+        <v>8.983737310027987</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>34.90211201470854</v>
+        <v>46.15646485164449</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.90211371576584</v>
+        <v>54.05444279146023</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.90209964368157</v>
+        <v>25.23637847870723</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.90210904083695</v>
+        <v>34.6431755073621</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.90210909330025</v>
+        <v>40.16595092819101</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.90211123347327</v>
+        <v>36.65060177478857</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>34.90211130749626</v>
+        <v>39.23462584565287</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.90211093572672</v>
+        <v>43.30943385910335</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>34.90211419253174</v>
+        <v>46.98703240934968</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>34.90211682176978</v>
+        <v>53.9142836630359</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>34.90211687729293</v>
+        <v>57.07322964656258</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.90210971551752</v>
+        <v>33.17590720096301</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.90211623299457</v>
+        <v>48.96840017792509</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>34.90211702938882</v>
+        <v>55.17071729479549</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.90209459531017</v>
+        <v>16.43721382575039</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.90211315800887</v>
+        <v>53.60993732319353</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.90211368006707</v>
+        <v>61.50848375036411</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>34.90209988735881</v>
+        <v>32.69089413868629</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>34.90211030882408</v>
+        <v>42.09820584426824</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>34.90211095853778</v>
+        <v>47.62145277449586</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>34.90211325889276</v>
+        <v>44.10572352534972</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>34.90211293266891</v>
+        <v>46.69040101091683</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>34.90211520944315</v>
+        <v>50.76557194289397</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>34.90211833075713</v>
+        <v>54.44415259264802</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>34.90212121845593</v>
+        <v>61.37160368477838</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>34.902121550255</v>
+        <v>64.53080066644769</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.90211310218456</v>
+        <v>40.63238692632432</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>34.90212085698764</v>
+        <v>56.42536310662113</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.90212201004439</v>
+        <v>62.62818707264783</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>34.90209637233082</v>
+        <v>0.8803734834416268</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>34.90211262899039</v>
+        <v>38.04970045869537</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>34.90211413866664</v>
+        <v>45.94649218202265</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>34.90210407299057</v>
+        <v>17.13503366329824</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>34.90211092641547</v>
+        <v>26.53887907582223</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.90211034942075</v>
+        <v>32.06093259876444</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.90211115078505</v>
+        <v>28.54638035129527</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>34.90211062088078</v>
+        <v>31.12803063437262</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>34.90211164231087</v>
+        <v>35.20228469644904</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.90211489916844</v>
+        <v>38.87940823371206</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>34.90211760001175</v>
+        <v>45.80502655092003</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.9021179965705</v>
+        <v>48.96349274203702</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>34.90211030295607</v>
+        <v>25.06954303652126</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.902118215841</v>
+        <v>40.85888398943972</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.9021187871226</v>
+        <v>47.06032366335113</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.90209519410134</v>
+        <v>5.519384563369368</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.90211194697768</v>
+        <v>42.69329094943599</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.90211391515152</v>
+        <v>50.59147460550706</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.90209937239155</v>
+        <v>21.77201533590015</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>34.90210949158447</v>
+        <v>31.17928114581273</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.90210997785043</v>
+        <v>36.70219027571362</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.90211208138974</v>
+        <v>33.18654727899558</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>34.90211235792194</v>
+        <v>35.77081417789269</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>34.9021118820087</v>
+        <v>39.84572288113189</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>34.90211476100622</v>
+        <v>43.52344186735796</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.90211762129875</v>
+        <v>50.45097290144484</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>34.90211761393189</v>
+        <v>53.60999992528001</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>34.90210997030571</v>
+        <v>29.71175087836876</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.90211671118282</v>
+        <v>45.5048761832271</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34.90211761714334</v>
+        <v>51.70734963335154</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>34.90209461868724</v>
+        <v>12.97323185688013</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.90211424800105</v>
+        <v>50.14713420533461</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.90211457583011</v>
+        <v>58.04588637007838</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.90209941738587</v>
+        <v>29.22690182333802</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>34.90211073993741</v>
+        <v>38.63468233439822</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.9021113322905</v>
+        <v>44.15806299266818</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>34.90211399770845</v>
+        <v>40.64203986423796</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.90211381559935</v>
+        <v>43.22696020856152</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>34.90211651919044</v>
+        <v>47.30223184679549</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.90211901370391</v>
+        <v>50.98093293113071</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>34.90212202445949</v>
+        <v>57.90866381258239</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.90212237126644</v>
+        <v>61.06794184688498</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>34.90211314713992</v>
+        <v>37.16860147027215</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>34.90212118667736</v>
+        <v>52.96221000336628</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>34.90212244772185</v>
+        <v>59.16519032368943</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.9080008904674237</v>
+        <v>-0.9080008904375241</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36.26042898576473</v>
+        <v>36.26042898581646</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>44.15733633044657</v>
+        <v>44.15733633038563</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.34627640456845</v>
+        <v>15.34627640458187</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.74951072922441</v>
+        <v>24.74951072918564</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.27166164552726</v>
+        <v>30.27166164553567</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.75737209696261</v>
+        <v>26.75737209695522</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.33854214273877</v>
+        <v>29.33854214273343</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.41288381341552</v>
+        <v>33.41288381340438</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>37.08997509420111</v>
+        <v>37.08997509421737</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>44.01533519662233</v>
+        <v>44.01533519661164</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>47.17389278372433</v>
+        <v>47.17389278375832</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.28069499037984</v>
+        <v>23.2806949903596</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39.06933045821073</v>
+        <v>39.06933045823813</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>45.27088159942421</v>
+        <v>45.27088159942137</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.731670952981727</v>
+        <v>3.731670952930227</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>40.90468017610975</v>
+        <v>40.90468017603915</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>48.80297950602288</v>
+        <v>48.80297950589396</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19.98391885963393</v>
+        <v>19.98391885969225</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.39057356084866</v>
+        <v>29.39057356082047</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.91358013070736</v>
+        <v>34.91358013069087</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.39819976131376</v>
+        <v>31.39819976133581</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>33.98198641061366</v>
+        <v>33.98198641059888</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.05698276864062</v>
+        <v>38.05698276865108</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>41.73466945444021</v>
+        <v>41.73466945435131</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>48.66194225781872</v>
+        <v>48.66194225775483</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>51.82106070954841</v>
+        <v>51.82106070953181</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.92356353789783</v>
+        <v>27.92356353798412</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43.71598332493316</v>
+        <v>43.7159833250016</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>49.91856829668755</v>
+        <v>49.91856829676361</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>11.18499304672603</v>
+        <v>11.18499304669636</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48.35799822717875</v>
+        <v>48.35799822718592</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>56.25686606350301</v>
+        <v>56.25686606343764</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>27.43828012719437</v>
+        <v>27.43828012717584</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.84544950659482</v>
+        <v>36.84544950661903</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>42.36892760565341</v>
+        <v>42.36892760565489</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.8531671078831</v>
+        <v>38.8531671078599</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.43760717901453</v>
+        <v>41.43760717903409</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>45.51296647164519</v>
+        <v>45.51296647159073</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>49.19163527314593</v>
+        <v>49.19163527307568</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>56.11910791409126</v>
+        <v>56.11910791409376</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59.27847737312696</v>
+        <v>59.27847737309615</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.37988889519794</v>
+        <v>35.3798888951644</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>51.17279188967085</v>
+        <v>51.17279188968142</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>57.37588373073878</v>
+        <v>57.37588373073707</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2571904833216472</v>
+        <v>0.2571904833051626</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>37.42634319793397</v>
+        <v>37.42634319795989</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>45.32291953006971</v>
+        <v>45.322919530058</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.51188244985563</v>
+        <v>16.51188244983255</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.91577643665549</v>
+        <v>25.91577643658182</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.43766380870305</v>
+        <v>31.4376638086462</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.92306892134318</v>
+        <v>27.92306892134932</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.5048170547826</v>
+        <v>30.50481705472485</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.57895129997085</v>
+        <v>34.57895129998506</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.25605071522078</v>
+        <v>38.25605071521385</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.18165187416695</v>
+        <v>45.18165187416331</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.3400041425965</v>
+        <v>48.34000414259604</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.44622947340188</v>
+        <v>24.44622947338199</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40.23557978723089</v>
+        <v>40.23557978717677</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>46.43684021621321</v>
+        <v>46.43684021618547</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.895688601370903</v>
+        <v>4.895688601391935</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.06942069785087</v>
+        <v>42.06942069788055</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>49.96738890219056</v>
+        <v>49.96738890221046</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>21.14835117771529</v>
+        <v>21.14835117773348</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.55566552900676</v>
+        <v>30.55566552900335</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.07840846100588</v>
+        <v>36.07840846100997</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.56272289066622</v>
+        <v>32.56272289071465</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.14708760474888</v>
+        <v>35.14708760474672</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39.22187645541156</v>
+        <v>39.22187645538951</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>42.89957134994835</v>
+        <v>42.8995713499064</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>49.82708521020548</v>
+        <v>49.82708521023936</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>52.98599828208806</v>
+        <v>52.98599828199893</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.08792436099223</v>
+        <v>29.08792436102838</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>44.88105898926811</v>
+        <v>44.88105898931904</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>51.08335314328677</v>
+        <v>51.08335314328836</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.35044692566406</v>
+        <v>12.35044692565269</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>49.52417499877025</v>
+        <v>49.52417499875047</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>57.42271170256116</v>
+        <v>57.42271170252455</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.60414868552264</v>
+        <v>28.60414868551582</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>38.01197775475178</v>
+        <v>38.01197775474496</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.53519220373731</v>
+        <v>43.53519220371037</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>40.01912654572889</v>
+        <v>40.01912654571093</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>42.60414471538444</v>
+        <v>42.60414471536079</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>46.67929649293818</v>
+        <v>46.67929649287429</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.35797345500417</v>
+        <v>50.35797345490663</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>57.28568716527012</v>
+        <v>57.28568716528694</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>60.444851241362</v>
+        <v>60.44485124135791</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.54568597237095</v>
+        <v>36.54568597229591</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>52.33930384346012</v>
+        <v>52.33930384332733</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>58.54210485725547</v>
+        <v>58.54210485711768</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-0.4609869889051375</v>
+        <v>-0.4609869889537954</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.70818395692378</v>
+        <v>36.70818395689842</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>44.60470965912496</v>
+        <v>44.60470965912337</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>15.79365177072917</v>
+        <v>15.79365177066766</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.19753655571843</v>
+        <v>25.19753655568739</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.7193746981702</v>
+        <v>30.71937469815451</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.20484360240424</v>
+        <v>27.20484360240014</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.78658023128035</v>
+        <v>29.78658023126557</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.86066070068112</v>
+        <v>33.86066070064963</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>37.53788657879635</v>
+        <v>37.53788657875087</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>44.46347989102343</v>
+        <v>44.46347989102274</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>47.62180822638798</v>
+        <v>47.62180822640697</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.72809478639361</v>
+        <v>23.72809478637542</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.51744173478833</v>
+        <v>39.51744173481426</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>45.71864418469566</v>
+        <v>45.71864418464109</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4.178057770832179</v>
+        <v>4.178057770829792</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.35180811971701</v>
+        <v>41.35180811981455</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.24972569090595</v>
+        <v>49.24972569095699</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20.43066717849295</v>
+        <v>20.43066717848965</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.83797233904054</v>
+        <v>29.83797233899359</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.36066604089886</v>
+        <v>35.36066604091376</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.84504426418321</v>
+        <v>31.84504426423869</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>34.42939748476054</v>
+        <v>34.42939748473849</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.5041325577016</v>
+        <v>38.50413255762588</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>42.18195389087371</v>
+        <v>42.18195389078606</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.10945990629101</v>
+        <v>49.10945990628544</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>52.26834904384917</v>
+        <v>52.26834904378892</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.37033633484098</v>
+        <v>28.37033633485929</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>44.16346761315036</v>
+        <v>44.16346761322789</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.36570378566488</v>
+        <v>50.36570378572411</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>11.63281117374934</v>
+        <v>11.63281117369489</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>48.80655750302456</v>
+        <v>48.80655750297193</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>56.70504357282719</v>
+        <v>56.70504357281094</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.88645976675262</v>
+        <v>27.8864597667583</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>37.29427964808268</v>
+        <v>37.29427964797377</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.81744486739284</v>
+        <v>42.81744486735646</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>39.30144299658933</v>
+        <v>39.30144299661025</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.88644967667493</v>
+        <v>41.88644967659751</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.96154767632264</v>
+        <v>45.96154767625113</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>49.64035106992752</v>
+        <v>49.64035106984635</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>56.56805693899229</v>
+        <v>56.56805693899251</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.72719708131329</v>
+        <v>59.72719708136081</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.82809301770361</v>
+        <v>35.82809301770577</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>51.62170754296766</v>
+        <v>51.62170754294014</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.82445057518315</v>
+        <v>57.82445057516701</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-6.376473076121119</v>
+        <v>-6.376473076134307</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>30.79166767556192</v>
+        <v>30.79166767554396</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>38.68846550149782</v>
+        <v>38.68846550157308</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.87736733883035</v>
+        <v>9.877367338828417</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.2804099021216</v>
+        <v>19.28040990209977</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.80245669143993</v>
+        <v>24.80245669142208</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>21.28822830551381</v>
+        <v>21.28822830559589</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.86924751073409</v>
+        <v>23.86924751070522</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.94349944442193</v>
+        <v>27.94349944446888</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.62075798374756</v>
+        <v>31.62075798384852</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.54605103656171</v>
+        <v>38.54605103658569</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.70456668763016</v>
+        <v>41.70456668768678</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>17.81176134868131</v>
+        <v>17.81176134865391</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.60017325081706</v>
+        <v>33.60017325081343</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>39.80161348341572</v>
+        <v>39.80161348340026</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1.737130907912633</v>
+        <v>-1.737130907912292</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.43558916078926</v>
+        <v>35.43558916079108</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.33377895213322</v>
+        <v>43.33377895203999</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>14.51468011113398</v>
+        <v>14.51468011110306</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.92114302219407</v>
+        <v>23.92114302209744</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.44404544485074</v>
+        <v>29.44404544482141</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.92872626829567</v>
+        <v>25.92872626830306</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.51236205066787</v>
+        <v>28.51236205073506</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.58726865307743</v>
+        <v>32.58726865304833</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.26512262025174</v>
+        <v>36.26512262025379</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.19232835917386</v>
+        <v>43.19232835915442</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.35140486769738</v>
+        <v>46.35140486772205</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.45430019133265</v>
+        <v>22.45430019130536</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.24649638107859</v>
+        <v>38.24649638108598</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>44.44897042245019</v>
+        <v>44.44897042244121</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>5.716848362506976</v>
+        <v>5.716848362492197</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.88956440545211</v>
+        <v>42.88956440549553</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.78832270259703</v>
+        <v>50.78832270254053</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.96969856792166</v>
+        <v>21.96969856794804</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.37667617315217</v>
+        <v>31.37667617324199</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.90005012051652</v>
+        <v>36.90005012056007</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>33.38435083428645</v>
+        <v>33.38435083424461</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>35.9686400489163</v>
+        <v>35.96864004885082</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>40.04390958232692</v>
+        <v>40.04390958225575</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>43.72274562903236</v>
+        <v>43.72274562911353</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>50.6501512113333</v>
+        <v>50.65015121133932</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>53.80947872600619</v>
+        <v>53.80947872603973</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.91128272031845</v>
+        <v>29.91128272026581</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>45.70396213314312</v>
+        <v>45.70396213315597</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>51.90694304049167</v>
+        <v>51.90694304037207</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3.138997348858521</v>
+        <v>3.138997348915932</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>40.30756325014248</v>
+        <v>40.30756325016146</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>48.20437788777927</v>
+        <v>48.20437788772016</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19.39343660659823</v>
+        <v>19.39343660658436</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.79688973937764</v>
+        <v>28.7968897393698</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.31898150567029</v>
+        <v>34.31898150563869</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>30.80468083364347</v>
+        <v>30.80468083358515</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.38607523102608</v>
+        <v>33.38607523104257</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.46037019810761</v>
+        <v>37.46037019810375</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>41.13734734678324</v>
+        <v>41.13734734674857</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>48.06280841081069</v>
+        <v>48.06280841085275</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>51.22133883963691</v>
+        <v>51.22133883965999</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.32787638340151</v>
+        <v>27.3278763834504</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>43.11673492211933</v>
+        <v>43.1167349221722</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>49.31821566684947</v>
+        <v>49.31821566691575</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>7.779806971145586</v>
+        <v>7.77980697108681</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.95295221751358</v>
+        <v>44.95295221742479</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>52.85115879923795</v>
+        <v>52.85115879915087</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>24.0322169320476</v>
+        <v>24.03221693205317</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.43909043774418</v>
+        <v>33.43909043774327</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>38.96203781455903</v>
+        <v>38.962037814548</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.44664639703306</v>
+        <v>35.44664639703693</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.03065739965653</v>
+        <v>38.0306573996745</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.10560701250436</v>
+        <v>42.10560701250027</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>45.78317957989644</v>
+        <v>45.78317957983846</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>52.71055334091942</v>
+        <v>52.71055334086462</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>55.86964461719661</v>
+        <v>55.86964461718729</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.97188279870771</v>
+        <v>31.97188279865575</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>47.76452565562771</v>
+        <v>47.76452565565431</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>15.23293691082015</v>
+        <v>15.2329369108014</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>52.4060780946986</v>
+        <v>52.40607809469485</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>60.30485319285491</v>
+        <v>60.30485319281318</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.48638600835271</v>
+        <v>31.48638600839238</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.89377417956938</v>
+        <v>40.89377417955721</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.41719308970595</v>
+        <v>46.4171930897147</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>42.90142154636258</v>
+        <v>42.90142154631756</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.48608595650579</v>
+        <v>45.48608595651079</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>49.56139850677128</v>
+        <v>49.56139850672774</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>53.23995317150728</v>
+        <v>53.23995317148432</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>60.16752676477289</v>
+        <v>60.1675267647099</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>63.32686905072624</v>
+        <v>63.32686905068452</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.42801593956129</v>
+        <v>39.4280159395805</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>55.22114198663301</v>
+        <v>55.22114198665996</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>61.42416339029943</v>
+        <v>61.42416339030318</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>5.362073424910459</v>
+        <v>5.36207342492774</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.52972102920886</v>
+        <v>42.52972102916497</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>50.42594618446502</v>
+        <v>50.42594618454756</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.61635794314439</v>
+        <v>21.61635794311881</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.01992878113525</v>
+        <v>31.01992878112933</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>36.54158835840234</v>
+        <v>36.54158835839438</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.02722499247567</v>
+        <v>33.02722499243258</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>35.60896988473949</v>
+        <v>35.60896988477212</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.68293460665403</v>
+        <v>39.68293460660139</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.35971076763074</v>
+        <v>43.35971076754286</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>50.28507524435155</v>
+        <v>50.28507524433142</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>53.44331932421845</v>
+        <v>53.44331932419765</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.55030024283836</v>
+        <v>29.55030024279038</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>45.33908248095791</v>
+        <v>45.3390824809611</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>51.54007916857994</v>
+        <v>51.54007916858812</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>10.00339142775077</v>
+        <v>10.00339142782751</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.17561824242874</v>
+        <v>47.17561824246512</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>55.07323519037207</v>
+        <v>55.07323519043176</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.25564681423644</v>
+        <v>26.25564681421438</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.66263790419156</v>
+        <v>35.66263790418007</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>41.18515297784391</v>
+        <v>41.18515297779412</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>37.66969904552012</v>
+        <v>37.66969904556161</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>40.25406044370457</v>
+        <v>40.2540604436832</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>44.32867971560914</v>
+        <v>44.32867971558242</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.00605132433428</v>
+        <v>48.00605132431052</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>54.93332843306005</v>
+        <v>54.93332843305846</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>58.09213328783868</v>
+        <v>58.09213328784266</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.19481509398962</v>
+        <v>34.19481509389935</v>
       </c>
     </row>
     <row r="254">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>56.1894118627141</v>
+        <v>56.18941186265475</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>17.45715149969577</v>
+        <v>17.45715149967576</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>54.62937425094968</v>
+        <v>54.62937425096685</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>62.52755969253199</v>
+        <v>62.52755969252779</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.71044596586692</v>
+        <v>33.71044596581383</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>43.11795171582843</v>
+        <v>43.11795171578079</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.64093830153375</v>
+        <v>48.64093830148566</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.12510429759583</v>
+        <v>45.12510429760128</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>47.71011908825061</v>
+        <v>47.71011908824777</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>51.78510128204572</v>
+        <v>51.7851012820198</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>55.46345492782301</v>
+        <v>55.46345492779777</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>62.39093186163642</v>
+        <v>62.39093186165461</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>65.54998771555789</v>
+        <v>65.54998771556937</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>41.65157825712639</v>
+        <v>41.65157825712264</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>57.44462786576842</v>
+        <v>57.44462786582083</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>63.64716505990758</v>
+        <v>63.64716505995305</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-3.292185185362786</v>
+        <v>-3.29218518535119</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>33.87518067707116</v>
+        <v>33.87518067700363</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>41.77160806521725</v>
+        <v>41.77160806523248</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.96163706835555</v>
+        <v>12.96163706833543</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.36470300133952</v>
+        <v>22.36470300134452</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.88649042110181</v>
+        <v>27.88649042108112</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.37225348404636</v>
+        <v>24.37225348404875</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.9534700624067</v>
+        <v>26.95347006240113</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.02753580191596</v>
+        <v>31.02753580190697</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.70460373456102</v>
+        <v>34.70460373453498</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>41.62974802419158</v>
+        <v>41.62974802422421</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>44.78804541236603</v>
+        <v>44.78804541234705</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.89566205027107</v>
+        <v>20.89566205020672</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>36.68393417358708</v>
+        <v>36.68393417356479</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>42.88508364118137</v>
+        <v>42.88508364114954</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1.347069284442551</v>
+        <v>1.34706928447768</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>38.51901439729043</v>
+        <v>38.51901439730862</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>46.41683367782615</v>
+        <v>46.41683367789129</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>17.59886223226463</v>
+        <v>17.5988622322826</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.00534844737534</v>
+        <v>27.00534844736022</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>32.5279914682112</v>
+        <v>32.52799146821779</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.01266378022033</v>
+        <v>29.01266378023091</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>31.59649688030832</v>
+        <v>31.59649688035607</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>35.67121727143636</v>
+        <v>35.67121727149514</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>39.34888058257546</v>
+        <v>39.34888058260081</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>46.27593751895755</v>
+        <v>46.27593751894322</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.43479572407874</v>
+        <v>49.43479572410091</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.53811316544839</v>
+        <v>25.53811316543998</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>41.33016950791408</v>
+        <v>41.33016950792499</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>47.53235274243058</v>
+        <v>47.53235274239488</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>8.801331172961664</v>
+        <v>8.801331172948931</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>45.97327227407912</v>
+        <v>45.97327227407628</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>53.87166002001037</v>
+        <v>53.87166001999888</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.05416326427006</v>
+        <v>25.05416326420605</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.46116417852816</v>
+        <v>34.46116417848417</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>39.98427869264138</v>
+        <v>39.98427869258238</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.46857093028426</v>
+        <v>36.46857093033519</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>39.05305746455927</v>
+        <v>39.05305746456916</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>43.12814076333881</v>
+        <v>43.12814076336018</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>46.80678613845474</v>
+        <v>46.80678613841313</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>53.73404291629173</v>
+        <v>53.73404291632811</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>56.89315210989103</v>
+        <v>56.89315210984067</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>32.99537824624211</v>
+        <v>32.99537824626746</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>48.78791781873916</v>
+        <v>48.78791781875701</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>54.99060788516975</v>
+        <v>54.99060788518976</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-1.613970697169879</v>
+        <v>-1.613970697169993</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>35.55473615402126</v>
+        <v>35.55473615402364</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>43.45157004137194</v>
+        <v>43.45157004136193</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>14.64036468095183</v>
+        <v>14.64036468094774</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.04378741837602</v>
+        <v>24.04378741844071</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.56588044255885</v>
+        <v>29.56588044256874</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.05149808668851</v>
+        <v>26.05149808663996</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.63282667693873</v>
+        <v>28.63282667692406</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.70711791221059</v>
+        <v>32.70711791210327</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.38427576614889</v>
+        <v>36.38427576611683</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>43.30974537232792</v>
+        <v>43.30974537231667</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.4682784391449</v>
+        <v>46.46827843914365</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.57486047968062</v>
+        <v>22.5748604797635</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.36372054457</v>
+        <v>38.36372054458785</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.56520575298542</v>
+        <v>44.5652057529736</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.025873923072236</v>
+        <v>3.025873923065415</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>40.19916013477005</v>
+        <v>40.19916013472253</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>48.0973859738766</v>
+        <v>48.09738597385466</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.27817994169946</v>
+        <v>19.27817994160487</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.68502305920115</v>
+        <v>28.68502305917637</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>34.20797170063632</v>
+        <v>34.20797170061051</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.6924985810633</v>
+        <v>30.69249858104625</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.27644377828766</v>
+        <v>33.27644377826981</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.35138966476937</v>
+        <v>37.35138966477551</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>41.02914296305174</v>
+        <v>41.02914296296795</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>47.95652527313062</v>
+        <v>47.95652527313415</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>51.1156191896997</v>
+        <v>51.11561918964161</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.21790186736176</v>
+        <v>27.21790186734925</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>43.01054625845903</v>
+        <v>43.01054625844471</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>49.21306525791077</v>
+        <v>49.21306525789338</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>10.47951325272502</v>
+        <v>10.4795132526534</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>47.65279541560163</v>
+        <v>47.65279541559947</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>55.55158977379993</v>
+        <v>55.55158977380221</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.7328584371056</v>
+        <v>26.73285843711231</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>36.14021623639086</v>
+        <v>36.14021623640507</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>41.6636364123252</v>
+        <v>41.66363641239853</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.14778317221429</v>
+        <v>38.14778317218666</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>40.73238179279939</v>
+        <v>40.73238179278199</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>44.80769061803402</v>
+        <v>44.80769061800525</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>48.48642600671188</v>
+        <v>48.48642600669369</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>55.41400815566611</v>
+        <v>55.41400815568169</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>58.57335308357072</v>
+        <v>58.57335308357095</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>34.67454444419194</v>
+        <v>34.67454444420024</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>50.46767204292767</v>
+        <v>50.46767204292506</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.67069791924722</v>
+        <v>56.67069791921675</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>10.77783006833338</v>
+        <v>10.77783006833145</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>47.94649226042746</v>
+        <v>47.94649226036505</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>55.84293380422012</v>
+        <v>55.84293380419329</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.03307862210145</v>
+        <v>27.03307862198868</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>36.4370278482712</v>
+        <v>36.43702784815456</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.95885350849288</v>
+        <v>41.95885350843649</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>38.4443969527574</v>
+        <v>38.44439695276104</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>41.02634317495175</v>
+        <v>41.02634317494845</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>45.10043251799628</v>
+        <v>45.10043251799833</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>48.77729433341197</v>
+        <v>48.77729433336513</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>55.70283830597474</v>
+        <v>55.70283830588197</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>58.86114545945541</v>
+        <v>58.86114545943802</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.96744161098489</v>
+        <v>34.96744161093612</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>50.75675511569339</v>
+        <v>50.75675511562075</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>56.95793168862768</v>
+        <v>56.95793168849239</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>15.41644698364631</v>
+        <v>15.41644698361641</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>52.58968846014066</v>
+        <v>52.58968846010349</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>60.48752183309772</v>
+        <v>60.48752183308169</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.66966620416666</v>
+        <v>31.66966620422941</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>41.07703573880075</v>
+        <v>41.07703573882621</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>46.59971692616988</v>
+        <v>46.59971692613861</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>43.08416970657389</v>
+        <v>43.0841697065823</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>45.668732472776</v>
+        <v>45.66873247280033</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>49.74347639618837</v>
+        <v>49.74347639617416</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>53.42093369749249</v>
+        <v>53.42093369745224</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>60.34839033541776</v>
+        <v>60.34839033540423</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>63.50725827648522</v>
+        <v>63.50725827649772</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>39.60925526941172</v>
+        <v>39.60925526941581</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>55.40235302318091</v>
+        <v>55.40235302318113</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>61.60456328487338</v>
+        <v>61.60456328485962</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>22.87002416066978</v>
+        <v>22.87002416067615</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>60.04326156902628</v>
+        <v>60.04326156905925</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>67.94166343143421</v>
+        <v>67.94166343144353</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.124282485845</v>
+        <v>39.12428248577599</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.53216668624155</v>
+        <v>48.53216668621165</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>54.05531938276043</v>
+        <v>54.05531938264367</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>50.53939208668372</v>
+        <v>50.53939208662199</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>53.12460825700985</v>
+        <v>53.12460825698712</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>57.19971509896924</v>
+        <v>57.19971509892308</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>60.87815449874596</v>
+        <v>60.87815449873175</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>67.80581096764898</v>
+        <v>67.80581096765864</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>70.96492990384012</v>
+        <v>70.96492990385796</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>47.06583562437662</v>
+        <v>47.06583562431204</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>62.85941656559804</v>
+        <v>62.85941656552016</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>69.06213367734436</v>
+        <v>69.06213367728013</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-6.930876731024927</v>
+        <v>-6.930876731063353</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.2361258929768</v>
+        <v>30.23612589291143</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>38.1324608232171</v>
+        <v>38.13246082316992</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>9.322204464644738</v>
+        <v>9.322204464682823</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.7252876730365</v>
+        <v>18.72528767302434</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.24699250691092</v>
+        <v>24.24699250694571</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.7326029080351</v>
+        <v>20.73260290809615</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.31387466757392</v>
+        <v>23.31387466756176</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.38788168227357</v>
+        <v>27.38788168232757</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.06487697199234</v>
+        <v>31.06487697199598</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.98998482649937</v>
+        <v>37.98998482646321</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>41.14823890346382</v>
+        <v>41.14823890344574</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>17.25599202777662</v>
+        <v>17.25599202770568</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.04418140977792</v>
+        <v>33.0441814098143</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.2452476277392</v>
+        <v>39.24524762778786</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-2.291963109085959</v>
+        <v>-2.29196310905947</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.87961871549099</v>
+        <v>34.87961871538856</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>42.77734553389949</v>
+        <v>42.7773455337982</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>13.9590887865712</v>
+        <v>13.95908878659985</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.36559222485742</v>
+        <v>23.36559222484275</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.88815266197194</v>
+        <v>28.88815266204879</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.3726723240661</v>
+        <v>25.3726723241085</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.95656056629739</v>
+        <v>27.95656056629876</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.03122223093838</v>
+        <v>32.0312222309369</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.70881287968551</v>
+        <v>35.70881287966027</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>42.63583335590839</v>
+        <v>42.63583335588258</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>45.79464824349076</v>
+        <v>45.79464824342016</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.89810222302865</v>
+        <v>21.89810222296965</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>37.69007577348496</v>
+        <v>37.69007577346427</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>43.89217575614155</v>
+        <v>43.89217575612302</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>5.162397868192539</v>
+        <v>5.162397868211411</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>42.33397570203282</v>
+        <v>42.33397570201679</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>50.23227098009816</v>
+        <v>50.2322709800511</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.41448893487948</v>
+        <v>21.41448893490222</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.8215070854528</v>
+        <v>30.82150708554694</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.34453901292805</v>
+        <v>36.34453901301366</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.82867857883546</v>
+        <v>32.82867857883762</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.41322026815668</v>
+        <v>35.41322026815304</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>39.48824484051498</v>
+        <v>39.4882448405168</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>43.16681751349437</v>
+        <v>43.16681751344548</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>50.09403783812955</v>
+        <v>50.09403783812921</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>53.25310371713407</v>
+        <v>53.25310371713134</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.35546638651838</v>
+        <v>29.35546638647109</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>45.14792318401042</v>
+        <v>45.14792318396404</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>51.35052999592686</v>
+        <v>51.35052999590344</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.4767501796292031</v>
+        <v>0.4767501796189713</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>37.64493328821196</v>
+        <v>37.64493328819604</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>45.54123917968637</v>
+        <v>45.54123917964976</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>16.73068154112307</v>
+        <v>16.73068154110568</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.13430582418446</v>
+        <v>26.13430582420163</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>31.65596226578382</v>
+        <v>31.65596226582771</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.14157833180898</v>
+        <v>28.14157833171951</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.72322981775072</v>
+        <v>30.72322981773616</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.79718038235738</v>
+        <v>34.79718038237353</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>38.47413616302298</v>
+        <v>38.47413616300729</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>45.39956988068592</v>
+        <v>45.39956988074219</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>48.55781930355793</v>
+        <v>48.55781930357067</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.66461617639389</v>
+        <v>24.66461617634318</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>40.45353356773499</v>
+        <v>40.45353356770805</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>46.6545475064646</v>
+        <v>46.654547506463</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>5.117314027042863</v>
+        <v>5.117314027069806</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>42.2900764322777</v>
+        <v>42.29007643226792</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>50.18777416306988</v>
+        <v>50.18777416299996</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>21.36921618371512</v>
+        <v>21.36921618375434</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.77626075830686</v>
+        <v>30.77626075828651</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.29877274038846</v>
+        <v>36.29877274039221</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>32.78329818844951</v>
+        <v>32.7832981884478</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>35.36756620544848</v>
+        <v>35.36756620542506</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.44217135635209</v>
+        <v>39.44217135631833</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>43.11972256866282</v>
+        <v>43.11972256861735</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>50.04706894555396</v>
+        <v>50.04706894556681</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.20587915923703</v>
+        <v>53.20587915926397</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.30837684450874</v>
+        <v>29.30837684449237</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>45.10107847725452</v>
+        <v>45.10107847722962</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>51.30312611463249</v>
+        <v>51.30312611458542</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>12.57192881882632</v>
+        <v>12.57192881877743</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>49.74468720778405</v>
+        <v>49.74468720770595</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>57.64295343258844</v>
+        <v>57.64295343249135</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.82487011410374</v>
+        <v>28.82487011406384</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.23242939970565</v>
+        <v>38.23242939964426</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>43.75541289448732</v>
+        <v>43.75541289455269</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>40.23955825735298</v>
+        <v>40.23955825734593</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.82447971870361</v>
+        <v>42.82447971868747</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>46.89944779354992</v>
+        <v>46.89944779354481</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>50.5779810139562</v>
+        <v>50.57798101393495</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>57.50552723821441</v>
+        <v>57.505527238206</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>60.66458845637111</v>
+        <v>60.66458845640931</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>36.76599481131937</v>
+        <v>36.76599481120819</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>52.55917968121433</v>
+        <v>52.55917968114544</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>58.76173417388951</v>
+        <v>58.76173417381004</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-7.169572951683467</v>
+        <v>-7.169572951634468</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.99818071578202</v>
+        <v>29.99818071584114</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>37.8944942503591</v>
+        <v>37.89449425039992</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>9.083951108396359</v>
+        <v>9.083951108352021</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.48720737975246</v>
+        <v>18.48720737971676</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.00885857157844</v>
+        <v>24.00885857157821</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.49456116216536</v>
+        <v>20.49456116220686</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>23.07588091069406</v>
+        <v>23.07588091074897</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.14982377602164</v>
+        <v>27.1498237760628</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.82705335382444</v>
+        <v>30.82705335383933</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>37.75230442743633</v>
+        <v>37.75230442744702</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>40.91053574527403</v>
+        <v>40.91053574531666</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>17.0180357627929</v>
+        <v>17.01803576275425</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.80653840426292</v>
+        <v>32.8065384043142</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.00754868665852</v>
+        <v>39.00754868666387</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-2.531353767267223</v>
+        <v>-2.53135376724892</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>34.64097917238722</v>
+        <v>34.6409791723738</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>42.53868456757162</v>
+        <v>42.53868456759834</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>13.72014093038443</v>
+        <v>13.72014093036067</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.12681747074144</v>
+        <v>23.12681747069972</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.64932423219544</v>
+        <v>28.64932423216724</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.133936126639</v>
+        <v>25.13393612662035</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.71787237808006</v>
+        <v>27.71787237810961</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.79246986204462</v>
+        <v>31.7924698620029</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.47029484833591</v>
+        <v>35.47029484830828</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.39745856879084</v>
+        <v>42.39745856878436</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>45.55625068711855</v>
+        <v>45.55625068710366</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>21.65945154392714</v>
+        <v>21.65945154387473</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>37.45173839812638</v>
+        <v>37.45173839814798</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>43.65378241103859</v>
+        <v>43.65378241099187</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>4.924076252222317</v>
+        <v>4.924076252187074</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>42.09640521360926</v>
+        <v>42.09640521357879</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>49.99467907921324</v>
+        <v>49.99467907921893</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>21.17661013593122</v>
+        <v>21.17661013588711</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.58380141604151</v>
+        <v>30.58380141604526</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.10677967087507</v>
+        <v>36.10677967084608</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.59101150368143</v>
+        <v>32.59101150370644</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>35.17560122558096</v>
+        <v>35.17560122557187</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.25056161879091</v>
+        <v>39.2505616187983</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.92936861087638</v>
+        <v>42.92936861081135</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>49.85673219035071</v>
+        <v>49.85673219032536</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>53.01577530170185</v>
+        <v>53.01577530170549</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.11788479180221</v>
+        <v>29.11788479181494</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>44.91065491718187</v>
+        <v>44.91065491716778</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.11320576473746</v>
+        <v>51.11320576473371</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-10.64899816212791</v>
+        <v>-10.64899816218044</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.51760698866574</v>
+        <v>26.51760698868382</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>34.41368842448058</v>
+        <v>34.41368842448286</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.603691657132099</v>
+        <v>5.603691657169502</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>15.00656974518425</v>
+        <v>15.00656974517879</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.52802072503264</v>
+        <v>20.52802072500854</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.01383314021335</v>
+        <v>17.01383314022256</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.59496792753621</v>
+        <v>19.59496792758487</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.66876076843583</v>
+        <v>23.6687607684248</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.34593986369303</v>
+        <v>27.34593986362993</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>34.27097504003835</v>
+        <v>34.27097504010929</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>37.42912553473387</v>
+        <v>37.42912553473785</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.53743757267419</v>
+        <v>13.53743757266987</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.32537371883846</v>
+        <v>29.32537371885131</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>35.52617598107723</v>
+        <v>35.52617598106313</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-6.010053778136371</v>
+        <v>-6.010053778086348</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.16113052891727</v>
+        <v>31.161130528886</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>39.0586037986585</v>
+        <v>39.0586037986228</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>10.24060678414922</v>
+        <v>10.24060678411272</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.64690504917244</v>
+        <v>19.64690504919143</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.16921158488672</v>
+        <v>25.16921158485625</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.65393334551241</v>
+        <v>21.65393334556266</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.23768456645278</v>
+        <v>24.2376845664928</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.31213201398166</v>
+        <v>28.31213201398155</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.98990648257425</v>
+        <v>31.98990648257391</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>38.91685425699676</v>
+        <v>38.91685425698039</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>42.07556554385881</v>
+        <v>42.07556554387928</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>18.1795785036155</v>
+        <v>18.17957850368871</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>33.97129876399912</v>
+        <v>33.97129876406107</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>40.1731347380513</v>
+        <v>40.17313473811258</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.445463217104798</v>
+        <v>1.445463217081834</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>38.61664356037987</v>
+        <v>38.61664356035168</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>46.51468529229372</v>
+        <v>46.51468529229395</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>17.69716294108285</v>
+        <v>17.6971629410991</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.10397594414563</v>
+        <v>27.10397594417917</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.62675396589223</v>
+        <v>32.62675396590519</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.11109567363028</v>
+        <v>29.11109567366871</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.69550035757457</v>
+        <v>31.69550035762709</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.77031070986457</v>
+        <v>35.77031070986116</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>39.44906712790394</v>
+        <v>39.44906712786268</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>46.37621476015714</v>
+        <v>46.37621476014259</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>49.53517703772773</v>
+        <v>49.53517703778674</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.63809864128335</v>
+        <v>25.6380986412622</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>41.43030217334875</v>
+        <v>41.43030217342344</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>47.63264497479643</v>
+        <v>47.63264497479632</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-2.901191122777181</v>
+        <v>-2.901191122844597</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.26749634551753</v>
+        <v>34.26749634551628</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>42.16440369444329</v>
+        <v>42.16440369435144</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.35307189495471</v>
+        <v>13.3530718949397</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.75636044630549</v>
+        <v>22.75636044625922</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.27849954318343</v>
+        <v>28.27849954308963</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.76421181152021</v>
+        <v>24.7642118115135</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.34538333733779</v>
+        <v>27.34538333730493</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.41970858573243</v>
+        <v>31.41970858571242</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.09691014155509</v>
+        <v>35.09691014155395</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>42.02231495223019</v>
+        <v>42.02231495222075</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.18086022656517</v>
+        <v>45.18086022654028</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.28758929885201</v>
+        <v>21.2875892988785</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>37.07632250374785</v>
+        <v>37.07632250372932</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>43.27786141477314</v>
+        <v>43.27786141471039</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1.737520897168093</v>
+        <v>1.73752089711034</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>38.91078773247419</v>
+        <v>38.91078773247578</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>46.80908706251613</v>
+        <v>46.80908706251238</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>17.98975445692723</v>
+        <v>17.98975445695633</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.39646339147872</v>
+        <v>27.39646339149031</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.91945813635719</v>
+        <v>32.91945813640778</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.40407958357308</v>
+        <v>29.40407958364697</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.98786771398009</v>
+        <v>31.98786771395678</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.06284764372889</v>
+        <v>36.06284764372411</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>39.74064463083708</v>
+        <v>39.74064463078422</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>46.66796214867348</v>
+        <v>46.6679621487152</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>49.82706828494416</v>
+        <v>49.82706828494064</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.92949798926234</v>
+        <v>25.92949798926984</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>41.72201552223417</v>
+        <v>41.7220155222053</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>47.92458825795801</v>
+        <v>47.92458825796244</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>9.191372428365735</v>
+        <v>9.191372428228629</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>46.36463523425196</v>
+        <v>46.36463523426436</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>54.2635030698069</v>
+        <v>54.2635030697255</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.44464518062464</v>
+        <v>25.4446451805877</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.85186881146613</v>
+        <v>34.85186881151309</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>40.37533508326224</v>
+        <v>40.37533508329555</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.85957641285607</v>
+        <v>36.85957641285027</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>39.44401798143404</v>
+        <v>39.44401798140755</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>43.51936084373118</v>
+        <v>43.5193608436915</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>47.19813993884269</v>
+        <v>47.1981399388245</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>54.12565730120603</v>
+        <v>54.1256573012016</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>57.28501444411926</v>
+        <v>57.28501444405036</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>33.38635281638447</v>
+        <v>33.38635281639823</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>49.17935357497548</v>
+        <v>49.17935357495286</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>55.38243317799741</v>
+        <v>55.38243317802697</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-2.068893508479523</v>
+        <v>-2.068893508500896</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>35.09892794513006</v>
+        <v>35.09892794514677</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.99528081616653</v>
+        <v>42.99528081615914</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.18484017333013</v>
+        <v>14.18484017331989</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.58830280520122</v>
+        <v>23.58830280514711</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.11000739446284</v>
+        <v>29.11000739441281</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.59557073890549</v>
+        <v>25.595570738874</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.17709546852721</v>
+        <v>28.17709546849219</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.25109347037265</v>
+        <v>32.25109347034503</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.9280889739275</v>
+        <v>35.92808897392034</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>42.85341078047917</v>
+        <v>42.85341078046882</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>46.01167175314229</v>
+        <v>46.01167175308841</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.11882808793767</v>
+        <v>22.11882808795484</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>37.90751729080533</v>
+        <v>37.9075172908416</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>44.10858413574054</v>
+        <v>44.108584135849</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2.569464091291575</v>
+        <v>2.569464091209834</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>39.74186479221122</v>
+        <v>39.74186479220747</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>47.6396095241315</v>
+        <v>47.639609524124</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>18.82116843828076</v>
+        <v>18.82116843825166</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.22805132404538</v>
+        <v>28.22805132401036</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.75061148138342</v>
+        <v>33.75061148138433</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.23508413525506</v>
+        <v>30.23508413526939</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>32.81922536124237</v>
+        <v>32.81922536122202</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.89387797841913</v>
+        <v>36.89387797836376</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.57146889931992</v>
+        <v>40.571468899333</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.49870334568139</v>
+        <v>47.49870334560943</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>50.65752511777394</v>
+        <v>50.65752511770209</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.76038230380207</v>
+        <v>26.76038230382003</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.55285570411637</v>
+        <v>42.5528557041266</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>48.75495627724739</v>
+        <v>48.75495627724432</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>10.02411550083978</v>
+        <v>10.02411550076361</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>47.19651220360423</v>
+        <v>47.19651220362196</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>55.09482541275177</v>
+        <v>55.09482541271562</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.27685901756375</v>
+        <v>26.27685901762321</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.68425662378728</v>
+        <v>35.68425662377636</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.20728828156062</v>
+        <v>41.20728828158074</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.69138084644827</v>
+        <v>37.69138084643065</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.27617552624586</v>
+        <v>40.27617552624223</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>44.35119105852594</v>
+        <v>44.35119105847308</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>48.0297639965713</v>
+        <v>48.02976399655834</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.9571982951462</v>
+        <v>54.95719829517576</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>58.11627106515526</v>
+        <v>58.11627106518982</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>34.21803691630861</v>
+        <v>34.21803691640331</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>50.01099356683027</v>
+        <v>50.01099356686301</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>56.21360098183401</v>
+        <v>56.2136009819336</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>6.968656322033535</v>
+        <v>6.968656321988856</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>44.13811407179035</v>
+        <v>44.13811407180172</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>52.03509216998997</v>
+        <v>52.03509216996768</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>23.22391985521993</v>
+        <v>23.22391985525472</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>32.62773014016499</v>
+        <v>32.62773014017112</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.14994433724938</v>
+        <v>38.14994433725791</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>34.63549175600268</v>
+        <v>34.63549175606566</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.21709204942952</v>
+        <v>37.21709204947341</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.29148351316086</v>
+        <v>41.29148351321997</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>44.96849203859209</v>
+        <v>44.96849203854423</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>51.89413576634171</v>
+        <v>51.89413576634853</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>55.05272590509411</v>
+        <v>55.05272590509308</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>31.15860256281426</v>
+        <v>31.15860256280142</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>46.94795121085723</v>
+        <v>46.9479512109002</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>53.1495685176735</v>
+        <v>53.14956851767668</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>11.60782410370721</v>
+        <v>11.60782410374587</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>48.78186126172169</v>
+        <v>48.78186126170372</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>56.68023132424297</v>
+        <v>56.68023132431823</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.86105821481588</v>
+        <v>27.86105821480383</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.26828892023148</v>
+        <v>37.2682889202574</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>42.79135874150244</v>
+        <v>42.791358741542</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.27581536747526</v>
+        <v>39.2758153674548</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>41.86003229727554</v>
+        <v>41.86003229726235</v>
       </c>
     </row>
     <row r="699">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>49.61268240623427</v>
+        <v>49.61268240618004</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>56.54023886028163</v>
+        <v>56.54023886025617</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>59.69938985459008</v>
+        <v>59.69938985453994</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.80096711250222</v>
+        <v>35.80096711251689</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>51.59410012895647</v>
+        <v>51.59410012897909</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>57.79675123718344</v>
+        <v>57.79675123718026</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>19.06100911474708</v>
+        <v>19.06100911475378</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>56.23504220449819</v>
+        <v>56.23504220448045</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>64.13398078662259</v>
+        <v>64.13398078665396</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.31528237618475</v>
+        <v>35.31528237619555</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.72302775389754</v>
+        <v>44.7230277538814</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>50.24656911100827</v>
+        <v>50.2465691110243</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>46.73064561271802</v>
+        <v>46.73064561275429</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>49.31551595980532</v>
+        <v>49.31551595981658</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>53.3909250221535</v>
+        <v>53.39092502218442</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.06951114443346</v>
+        <v>57.06951114441755</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>63.99726743386928</v>
+        <v>63.99726743383825</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>67.15666943631821</v>
+        <v>67.15666943630696</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>43.25715539351857</v>
+        <v>43.25715539358463</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>59.05077160531856</v>
+        <v>59.05077160530765</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>65.25392959114684</v>
+        <v>65.25392959115844</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1.233072582432992</v>
+        <v>1.233072582459709</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>38.40095433503733</v>
+        <v>38.40095433504005</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>46.29771194739349</v>
+        <v>46.29771194744136</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.48722858373376</v>
+        <v>17.48722858379891</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.89037123906142</v>
+        <v>26.89037123907097</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>32.41241945134355</v>
+        <v>32.41241945136959</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.89821344356981</v>
+        <v>28.89821344354958</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.47940284765228</v>
+        <v>31.47940284765023</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.55366336748783</v>
+        <v>35.55366336748226</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>39.23067735104028</v>
+        <v>39.23067735103494</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>46.15596585671516</v>
+        <v>46.15596585674983</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>49.31447500052774</v>
+        <v>49.31447500054786</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.42159757519071</v>
+        <v>25.4215975751615</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>41.21004432926792</v>
+        <v>41.21004432928747</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>47.41147662370689</v>
+        <v>47.41147662369245</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>5.872594281385982</v>
+        <v>5.872594281388256</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>43.04505529104834</v>
+        <v>43.04505529105948</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>50.94320484842432</v>
+        <v>50.94320484838896</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.12472093190534</v>
+        <v>22.12472093196855</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.53128389612116</v>
+        <v>31.53128389611423</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>37.05418772627569</v>
+        <v>37.05418772631775</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.53889094105749</v>
+        <v>33.5388909410817</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.12269689754827</v>
+        <v>36.1226968975087</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>40.19761207235352</v>
+        <v>40.1976120723027</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>43.87522147573496</v>
+        <v>43.87522147570438</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>50.80242264359445</v>
+        <v>50.80242264351203</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>53.96149263730386</v>
+        <v>53.96149263728658</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.06431592223337</v>
+        <v>30.06431592214276</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>45.85654692121589</v>
+        <v>45.85654692123181</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.05901300632739</v>
+        <v>52.05901300631602</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>13.32562768375542</v>
+        <v>13.32562768381556</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>50.49808464023793</v>
+        <v>50.49808464023452</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.39680270046311</v>
+        <v>58.39680270050859</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.57879347800904</v>
+        <v>29.57879347796834</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.98587110440131</v>
+        <v>38.98587110437448</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>44.50924645770452</v>
+        <v>44.50924645769554</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>40.99356955116615</v>
+        <v>40.99356955119161</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.57802890940864</v>
+        <v>43.57802890940683</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.6533070134136</v>
+        <v>47.65330701340814</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>51.33189851097426</v>
+        <v>51.3318985109713</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>58.25929951149634</v>
+        <v>58.25929951146826</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>61.41862050947644</v>
+        <v>61.41862050948087</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>37.52035251159576</v>
+        <v>37.52035251161907</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>53.31306670007289</v>
+        <v>53.31306670007596</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>59.51603964874492</v>
+        <v>59.51603964877653</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-0.1815805314446557</v>
+        <v>-0.1815805314440873</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.98781214333813</v>
+        <v>36.98781214334939</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.88459096274106</v>
+        <v>44.88459096273401</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>16.07298555826206</v>
+        <v>16.07298555829321</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.47683844253696</v>
+        <v>25.47683844253161</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.99887479730272</v>
+        <v>30.99887479731374</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.48432995047879</v>
+        <v>27.48432995045549</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.0659692756502</v>
+        <v>30.06596927561393</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.1402099926929</v>
+        <v>34.14020999271689</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>37.81735445554737</v>
+        <v>37.81735445558682</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.74298095210348</v>
+        <v>44.74298095212747</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>47.90143428385339</v>
+        <v>47.90143428387101</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.00748334217324</v>
+        <v>24.00748334219893</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.79684148834063</v>
+        <v>39.79684148833506</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>45.99826503002178</v>
+        <v>45.99826503002156</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>4.457367320151302</v>
+        <v>4.457367320072972</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.63133941942407</v>
+        <v>41.63133941939098</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>49.52951016910571</v>
+        <v>49.52951016908695</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>20.70990399639582</v>
+        <v>20.70990399651656</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.11717728268955</v>
+        <v>30.11717728265317</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.64006924317617</v>
+        <v>35.64006924326098</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.12443365170269</v>
+        <v>32.12443365174612</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.70868959475102</v>
+        <v>34.70868959463415</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.78358495209839</v>
+        <v>38.78358495205133</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>42.46132486608893</v>
+        <v>42.46132486609086</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>49.38886408321194</v>
+        <v>49.38886408320842</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>52.54787824567721</v>
+        <v>52.54787824567562</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.6496279576372</v>
+        <v>28.64962795766563</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>44.44277046212788</v>
+        <v>44.44277046218541</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>50.6452277786003</v>
+        <v>50.64522777862599</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>11.91149554742934</v>
+        <v>11.91149554747345</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>49.08546361918933</v>
+        <v>49.08546361914033</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>56.98420287710813</v>
+        <v>56.98420287708107</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.16507142686531</v>
+        <v>28.16507142684643</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>37.57285942507291</v>
+        <v>37.57285942507666</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.09622291316838</v>
+        <v>43.09622291321521</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>39.58020719378634</v>
+        <v>39.58020719376405</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.1651165921355</v>
+        <v>42.16511659208685</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>46.24037488410077</v>
+        <v>46.24037488405371</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>49.91909689000703</v>
+        <v>49.91909688999645</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>56.84683595825912</v>
+        <v>56.84683595823616</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>60.00610113126207</v>
+        <v>60.00610113127651</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.10675949977632</v>
+        <v>36.10675949979883</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>51.90038524382736</v>
+        <v>51.90038524387613</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>58.10334943011115</v>
+        <v>58.1033494300783</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-4.46787917232577</v>
+        <v>-4.467879172253465</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>32.6993879842489</v>
+        <v>32.6993879842647</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>40.59599971270755</v>
+        <v>40.59599971275848</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>11.7856608011799</v>
+        <v>11.78566080121025</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.18858434881029</v>
+        <v>21.18858434882427</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.71052269776235</v>
+        <v>26.71052269770233</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.19628154756627</v>
+        <v>23.19628154762084</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.77735461516293</v>
+        <v>25.77735461517407</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.85153550505184</v>
+        <v>29.85153550506423</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.52853888374283</v>
+        <v>33.52853888372714</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>40.45366907758033</v>
+        <v>40.45366907756589</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>43.61208679107413</v>
+        <v>43.61208679110369</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.71967946032224</v>
+        <v>19.7196794603095</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>35.50780687507061</v>
+        <v>35.50780687504049</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>41.70911938320056</v>
+        <v>41.70911938313951</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>0.1716625508499696</v>
+        <v>0.1716625508802103</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.34350894276416</v>
+        <v>37.34350894277371</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>45.24151261119856</v>
+        <v>45.24151261118048</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>16.42317318755509</v>
+        <v>16.42317318758965</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.82951701948751</v>
+        <v>25.82951701948569</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.3523110030802</v>
+        <v>31.35231100307486</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.83697906244945</v>
+        <v>27.83697906241035</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.42066866122523</v>
+        <v>30.42066866129083</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.49550422512117</v>
+        <v>34.49550422516164</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.17310295471599</v>
+        <v>38.17310295476339</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>45.10014579935397</v>
+        <v>45.10014579942968</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.25912435575741</v>
+        <v>48.2591243558429</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>24.3624177736351</v>
+        <v>24.36241777364283</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>40.15432940843958</v>
+        <v>40.15432940841207</v>
       </c>
     </row>
     <row r="840">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>7.625149996572173</v>
+        <v>7.625149996589908</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>44.79699235743293</v>
+        <v>44.7969923574634</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>52.69556451187246</v>
+        <v>52.69556451192305</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>23.87769978171682</v>
+        <v>23.87769978179572</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.28455829044945</v>
+        <v>33.28455829037954</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.80782378351829</v>
+        <v>38.80782378340994</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.29211173291866</v>
+        <v>35.29211173293105</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>37.87645474752684</v>
+        <v>37.87645474751797</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.95165323151808</v>
+        <v>41.95165323155651</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>45.6302340342729</v>
+        <v>45.63023403430587</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.5574767125995</v>
+        <v>52.55747671267089</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.71670626762794</v>
+        <v>55.71670626767899</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.81890840210415</v>
+        <v>31.81890840213655</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>47.61130324461304</v>
+        <v>47.61130324458541</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>53.81415640566557</v>
+        <v>53.8141564055437</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>0.04007970736379818</v>
+        <v>0.04007970739244726</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>37.20778476915449</v>
+        <v>37.20778476917052</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>45.1045432999574</v>
+        <v>45.10454329991761</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.29412211511599</v>
+        <v>16.29412211512554</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.69716956504656</v>
+        <v>25.69716956503417</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.21921782359662</v>
+        <v>31.21921782354557</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.7050234362989</v>
+        <v>27.70502343625877</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.28614098054048</v>
+        <v>30.28614098056776</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.36040359530476</v>
+        <v>34.36040359526292</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.03743473956466</v>
+        <v>38.03743473955056</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>44.96267204074853</v>
+        <v>44.96267204076388</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>48.12118170533277</v>
+        <v>48.1211817053496</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>24.22845543133313</v>
+        <v>24.22845543135871</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>40.01678162776123</v>
+        <v>40.01678162779068</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>46.21821537684774</v>
+        <v>46.21821537689856</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>4.67934019646405</v>
+        <v>4.679340196478261</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>41.85162449875723</v>
+        <v>41.85162449870812</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>49.74977498234931</v>
+        <v>49.74977498233748</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.93135324215551</v>
+        <v>20.93135324211753</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.33782099029325</v>
+        <v>30.33782099023925</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>35.86072487609134</v>
+        <v>35.8607248760437</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.34543969405455</v>
+        <v>32.34543969402385</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>34.92917378161177</v>
+        <v>34.92917378160426</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>39.00409106088522</v>
+        <v>39.0040910608552</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>42.68171761731217</v>
+        <v>42.68171761726761</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>49.60886757575791</v>
+        <v>49.60886757575086</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>52.76793809401691</v>
+        <v>52.76793809400873</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.87091253955519</v>
+        <v>28.87091253959339</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>44.66302296791774</v>
+        <v>44.66302296790433</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>50.86549051794405</v>
+        <v>50.86549051792996</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>12.13240673319624</v>
+        <v>12.13240673322717</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>49.30468698706612</v>
+        <v>49.30468698705714</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>57.20340596931884</v>
+        <v>57.20340596933873</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.38545892632815</v>
+        <v>28.38545892627051</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>37.79244133815529</v>
+        <v>37.79244133813994</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.31581674498487</v>
+        <v>43.31581674495929</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>39.8001514426437</v>
+        <v>39.80015144259686</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>42.38453893369159</v>
+        <v>42.38453893368067</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>46.45981914060597</v>
+        <v>46.45981914059324</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>50.13842779074206</v>
+        <v>50.13842779068089</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>57.06577758203547</v>
+        <v>57.06577758205752</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>60.22509910316943</v>
+        <v>60.22509910314783</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>36.32698226611465</v>
+        <v>36.3269822660835</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>52.11957588671338</v>
+        <v>52.11957588670815</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>58.32255029755844</v>
+        <v>58.32255029757663</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>4.345090416520389</v>
+        <v>4.345090416501517</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.51323867752465</v>
+        <v>41.51323867745383</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>49.40982472880988</v>
+        <v>49.40982472875929</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>20.59976096188926</v>
+        <v>20.5997609618381</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.00313768116289</v>
+        <v>30.00313768109377</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>35.5250575224927</v>
+        <v>35.52505752251123</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.01079911058967</v>
+        <v>32.01079911058842</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.59220663680922</v>
+        <v>34.59220663678364</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>38.66636002595577</v>
+        <v>38.66636002593008</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.3433631338372</v>
+        <v>42.34336313383356</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>49.26870172657731</v>
+        <v>49.26870172662824</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>52.42708689170762</v>
+        <v>52.42708689176446</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.5340636627486</v>
+        <v>28.53406366270427</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>44.32277239153471</v>
+        <v>44.32277239153198</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>50.52405576246768</v>
+        <v>50.52405576244199</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>8.983737310027987</v>
+        <v>8.983737310026282</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>46.15646485164449</v>
+        <v>46.15646485163823</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>54.05444279146023</v>
+        <v>54.05444279144761</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.23637847870723</v>
+        <v>25.2363784786588</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.6431755073621</v>
+        <v>34.64317550731128</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>40.16595092819101</v>
+        <v>40.16595092815815</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.65060177478857</v>
+        <v>36.65060177474889</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>39.23462584565287</v>
+        <v>39.23462584554373</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>43.30943385910335</v>
+        <v>43.30943385908334</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>46.98703240934968</v>
+        <v>46.98703240927669</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>53.9142836630359</v>
+        <v>53.91428366303249</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>57.07322964656258</v>
+        <v>57.07322964652609</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>33.17590720096301</v>
+        <v>33.17590720090958</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>48.96840017792509</v>
+        <v>48.96840017789428</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>55.17071729479549</v>
+        <v>55.17071729475673</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>16.43721382575039</v>
+        <v>16.43721382569957</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>53.60993732319353</v>
+        <v>53.60993732317364</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>61.50848375036411</v>
+        <v>61.50848375038957</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>32.69089413868629</v>
+        <v>32.69089413864684</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>42.09820584426824</v>
+        <v>42.09820584421901</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>47.62145277449586</v>
+        <v>47.62145277445391</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>44.10572352534972</v>
+        <v>44.10572352531834</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>46.69040101091683</v>
+        <v>46.69040101088545</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>50.76557194289397</v>
+        <v>50.76557194284827</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>54.44415259264802</v>
+        <v>54.44415259255958</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>61.37160368477838</v>
+        <v>61.37160368478452</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>64.53080066644769</v>
+        <v>64.53080066644814</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>40.63238692632432</v>
+        <v>40.63238692635069</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>56.42536310662113</v>
+        <v>56.425363106483</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>62.62818707264783</v>
+        <v>62.62818707262419</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>0.8803734834416268</v>
+        <v>0.880373483393651</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.04970045869537</v>
+        <v>38.04970045868968</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>45.94649218202265</v>
+        <v>45.94649218204232</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>17.13503366329824</v>
+        <v>17.13503366327994</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.53887907582223</v>
+        <v>26.53887907576664</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>32.06093259876444</v>
+        <v>32.06093259872954</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.54638035129527</v>
+        <v>28.54638035130493</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>31.12803063437262</v>
+        <v>31.12803063442355</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.20228469644904</v>
+        <v>35.20228469650509</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>38.87940823371206</v>
+        <v>38.87940823371387</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>45.80502655092003</v>
+        <v>45.80502655093515</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>48.96349274203702</v>
+        <v>48.9634927420751</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.06954303652126</v>
+        <v>25.06954303652922</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>40.85888398943972</v>
+        <v>40.85888398947939</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>47.06032366335113</v>
+        <v>47.06032366331247</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>5.519384563369368</v>
+        <v>5.51938456340768</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>42.69329094943599</v>
+        <v>42.69329094944736</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>50.59147460550706</v>
+        <v>50.59147460546863</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>21.77201533590015</v>
+        <v>21.77201533584399</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.17928114581273</v>
+        <v>31.17928114576487</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>36.70219027571362</v>
+        <v>36.70219027566053</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.18654727899558</v>
+        <v>33.18654727902832</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>35.77081417789269</v>
+        <v>35.77081417785961</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>39.84572288113189</v>
+        <v>39.84572288110824</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>43.52344186735796</v>
+        <v>43.52344186738024</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>50.45097290144484</v>
+        <v>50.45097290140039</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>53.60999992528001</v>
+        <v>53.60999992524818</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.71175087836876</v>
+        <v>29.71175087841128</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>45.5048761832271</v>
+        <v>45.5048761831931</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>51.70734963335154</v>
+        <v>51.70734963337178</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>12.97323185688013</v>
+        <v>12.973231856884</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>50.14713420533461</v>
+        <v>50.14713420526901</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>58.04588637007838</v>
+        <v>58.04588637014398</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.22690182333802</v>
+        <v>29.2269018232398</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>38.63468233439822</v>
+        <v>38.63468233444915</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.15806299266818</v>
+        <v>44.15806299269012</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>40.64203986423796</v>
+        <v>40.64203986421568</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>43.22696020856152</v>
+        <v>43.22696020850104</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>47.30223184679549</v>
+        <v>47.30223184673001</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>50.98093293113071</v>
+        <v>50.98093293112548</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>57.90866381258239</v>
+        <v>57.90866381252248</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>61.06794184688498</v>
+        <v>61.0679418468428</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>37.16860147027215</v>
+        <v>37.16860147021713</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>52.96221000336628</v>
+        <v>52.96221000332172</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>59.16519032368943</v>
+        <v>59.16519032366658</v>
       </c>
     </row>
   </sheetData>
